--- a/Tables/Sources/gameplay/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/EquipmentConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>装备ID</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>StrengthenCost</t>
+  </si>
+  <si>
+    <t>ParamValue</t>
   </si>
   <si>
     <t>Gun</t>
@@ -105,11 +108,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,14 +131,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -143,8 +183,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,15 +227,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,36 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,55 +259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +289,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,175 +391,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,45 +499,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -545,17 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,16 +545,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1105,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1193,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,6 +1217,9 @@
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1227,13 +1233,13 @@
         <v>100102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1247,10 +1253,10 @@
         <v>100103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1264,10 +1270,10 @@
         <v>100104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1281,10 +1287,10 @@
         <v>100105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1298,10 +1304,10 @@
         <v>100106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1315,10 +1321,10 @@
         <v>100107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1332,10 +1338,10 @@
         <v>100108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1349,10 +1355,10 @@
         <v>100109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1366,10 +1372,10 @@
         <v>100110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1380,10 +1386,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1394,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1408,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1422,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="149">
   <si>
     <t>装备ID</t>
   </si>
@@ -31,7 +31,7 @@
     <t>装备名字</t>
   </si>
   <si>
-    <t>装备类型</t>
+    <t>装备类型（Weapon-武器，Armor-护具，Jewelry-饰品，Exclusive-专属）</t>
   </si>
   <si>
     <t>装备属性类型</t>
@@ -40,12 +40,27 @@
     <t>强化消耗</t>
   </si>
   <si>
+    <t>强化花费</t>
+  </si>
+  <si>
     <t>属性数值</t>
   </si>
   <si>
+    <t>材料名称</t>
+  </si>
+  <si>
+    <t>材料id</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -73,34 +88,382 @@
     <t>StrengthenCost</t>
   </si>
   <si>
+    <t>IntensifyCost</t>
+  </si>
+  <si>
     <t>ParamValue</t>
   </si>
   <si>
-    <t>Gun</t>
+    <t>Katana1</t>
   </si>
   <si>
     <t>Weapon</t>
   </si>
   <si>
-    <t>1001|2;</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Clothe</t>
-  </si>
-  <si>
-    <t>Shoes</t>
+    <t>强化石</t>
+  </si>
+  <si>
+    <t>Katana2</t>
+  </si>
+  <si>
+    <t>Katana3</t>
+  </si>
+  <si>
+    <t>Katana4</t>
+  </si>
+  <si>
+    <t>Katana5</t>
+  </si>
+  <si>
+    <t>Katana6</t>
+  </si>
+  <si>
+    <t>Katana7</t>
+  </si>
+  <si>
+    <t>Katana8</t>
+  </si>
+  <si>
+    <t>Katana9</t>
+  </si>
+  <si>
+    <t>Katana10</t>
+  </si>
+  <si>
+    <t>Gun1</t>
+  </si>
+  <si>
+    <t>Gun2</t>
+  </si>
+  <si>
+    <t>Gun3</t>
+  </si>
+  <si>
+    <t>Gun4</t>
+  </si>
+  <si>
+    <t>Gun5</t>
+  </si>
+  <si>
+    <t>Gun6</t>
+  </si>
+  <si>
+    <t>Gun7</t>
+  </si>
+  <si>
+    <t>Gun8</t>
+  </si>
+  <si>
+    <t>Gun9</t>
+  </si>
+  <si>
+    <t>Gun10</t>
+  </si>
+  <si>
+    <t>Staff1</t>
+  </si>
+  <si>
+    <t>Staff2</t>
+  </si>
+  <si>
+    <t>Staff3</t>
+  </si>
+  <si>
+    <t>Staff4</t>
+  </si>
+  <si>
+    <t>Staff5</t>
+  </si>
+  <si>
+    <t>Staff6</t>
+  </si>
+  <si>
+    <t>Staff7</t>
+  </si>
+  <si>
+    <t>Staff8</t>
+  </si>
+  <si>
+    <t>Staff9</t>
+  </si>
+  <si>
+    <t>Staff10</t>
+  </si>
+  <si>
+    <t>Armet1</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Armet2</t>
+  </si>
+  <si>
+    <t>Armet3</t>
+  </si>
+  <si>
+    <t>Armet4</t>
+  </si>
+  <si>
+    <t>Armet5</t>
+  </si>
+  <si>
+    <t>Armet6</t>
+  </si>
+  <si>
+    <t>Armet7</t>
+  </si>
+  <si>
+    <t>Armet8</t>
+  </si>
+  <si>
+    <t>Armet9</t>
+  </si>
+  <si>
+    <t>Armet10</t>
+  </si>
+  <si>
+    <t>Leather Armour1</t>
+  </si>
+  <si>
+    <t>Leather Armour2</t>
+  </si>
+  <si>
+    <t>Leather Armour3</t>
+  </si>
+  <si>
+    <t>Leather Armour4</t>
+  </si>
+  <si>
+    <t>Leather Armour5</t>
+  </si>
+  <si>
+    <t>Leather Armour6</t>
+  </si>
+  <si>
+    <t>Leather Armour7</t>
+  </si>
+  <si>
+    <t>Leather Armour8</t>
+  </si>
+  <si>
+    <t>Leather Armour9</t>
+  </si>
+  <si>
+    <t>Leather Armour10</t>
+  </si>
+  <si>
+    <t>Cape1</t>
+  </si>
+  <si>
+    <t>Cape2</t>
+  </si>
+  <si>
+    <t>Cape3</t>
+  </si>
+  <si>
+    <t>Cape4</t>
+  </si>
+  <si>
+    <t>Cape5</t>
+  </si>
+  <si>
+    <t>Cape6</t>
+  </si>
+  <si>
+    <t>Cape7</t>
+  </si>
+  <si>
+    <t>Cape8</t>
+  </si>
+  <si>
+    <t>Cape9</t>
+  </si>
+  <si>
+    <t>Cape10</t>
+  </si>
+  <si>
+    <t>Circlet1</t>
   </si>
   <si>
     <t>Jewelry</t>
   </si>
   <si>
-    <t>Crown</t>
-  </si>
-  <si>
-    <t>Hallows</t>
+    <t>Circlet2</t>
+  </si>
+  <si>
+    <t>Circlet3</t>
+  </si>
+  <si>
+    <t>Circlet4</t>
+  </si>
+  <si>
+    <t>Circlet5</t>
+  </si>
+  <si>
+    <t>Circlet6</t>
+  </si>
+  <si>
+    <t>Circlet7</t>
+  </si>
+  <si>
+    <t>Circlet8</t>
+  </si>
+  <si>
+    <t>Circlet9</t>
+  </si>
+  <si>
+    <t>Circlet10</t>
+  </si>
+  <si>
+    <t>Ring1</t>
+  </si>
+  <si>
+    <t>Ring2</t>
+  </si>
+  <si>
+    <t>Ring3</t>
+  </si>
+  <si>
+    <t>Ring4</t>
+  </si>
+  <si>
+    <t>Ring5</t>
+  </si>
+  <si>
+    <t>Ring6</t>
+  </si>
+  <si>
+    <t>Ring7</t>
+  </si>
+  <si>
+    <t>Ring8</t>
+  </si>
+  <si>
+    <t>Ring9</t>
+  </si>
+  <si>
+    <t>Ring10</t>
+  </si>
+  <si>
+    <t>Amulet1</t>
+  </si>
+  <si>
+    <t>Amulet2</t>
+  </si>
+  <si>
+    <t>Amulet3</t>
+  </si>
+  <si>
+    <t>Amulet4</t>
+  </si>
+  <si>
+    <t>Amulet5</t>
+  </si>
+  <si>
+    <t>Amulet6</t>
+  </si>
+  <si>
+    <t>Amulet7</t>
+  </si>
+  <si>
+    <t>Amulet8</t>
+  </si>
+  <si>
+    <t>Amulet9</t>
+  </si>
+  <si>
+    <t>Amulet10</t>
+  </si>
+  <si>
+    <t>Earring1</t>
+  </si>
+  <si>
+    <t>Earring2</t>
+  </si>
+  <si>
+    <t>Earring3</t>
+  </si>
+  <si>
+    <t>Earring4</t>
+  </si>
+  <si>
+    <t>Earring5</t>
+  </si>
+  <si>
+    <t>Earring6</t>
+  </si>
+  <si>
+    <t>Earring7</t>
+  </si>
+  <si>
+    <t>Earring8</t>
+  </si>
+  <si>
+    <t>Earring9</t>
+  </si>
+  <si>
+    <t>Earring10</t>
+  </si>
+  <si>
+    <t>Wrist Band1</t>
+  </si>
+  <si>
+    <t>Wrist Band2</t>
+  </si>
+  <si>
+    <t>Wrist Band3</t>
+  </si>
+  <si>
+    <t>Wrist Band4</t>
+  </si>
+  <si>
+    <t>Wrist Band5</t>
+  </si>
+  <si>
+    <t>Wrist Band6</t>
+  </si>
+  <si>
+    <t>Wrist Band7</t>
+  </si>
+  <si>
+    <t>Wrist Band8</t>
+  </si>
+  <si>
+    <t>Wrist Band9</t>
+  </si>
+  <si>
+    <t>Wrist Band10</t>
+  </si>
+  <si>
+    <t>Badge1</t>
+  </si>
+  <si>
+    <t>Badge2</t>
+  </si>
+  <si>
+    <t>Badge3</t>
+  </si>
+  <si>
+    <t>Badge4</t>
+  </si>
+  <si>
+    <t>Badge5</t>
+  </si>
+  <si>
+    <t>Badge6</t>
+  </si>
+  <si>
+    <t>Badge7</t>
+  </si>
+  <si>
+    <t>Badge8</t>
+  </si>
+  <si>
+    <t>Badge9</t>
+  </si>
+  <si>
+    <t>Badge10</t>
   </si>
 </sst>
 </file>
@@ -109,10 +472,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -131,14 +494,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,15 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,31 +561,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,14 +577,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,6 +594,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,22 +616,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +624,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,13 +652,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,13 +712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,19 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,31 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,31 +766,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,25 +814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +861,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -516,17 +897,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,30 +944,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,27 +958,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,19 +976,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,116 +997,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,6 +1116,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1100,25 +1466,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="17.375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="17.3796296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="63" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="23" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.8888888888889" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1498,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1143,86 +1510,134 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>100101</v>
       </c>
@@ -1230,19 +1645,33 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
+        <f>A6</f>
         <v>100102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" ref="G5:G7" si="0">K5&amp;"|"&amp;L5</f>
+        <v>101|10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>100102</v>
       </c>
@@ -1250,16 +1679,35 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" ref="C6:C13" si="1">A7</f>
         <v>100103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>101|15</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H13" si="2">H5+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2">
+        <v>101</v>
+      </c>
+      <c r="L6" s="2">
+        <f>L5+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>100103</v>
       </c>
@@ -1267,16 +1715,35 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="1"/>
         <v>100104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>101|20</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2">
+        <v>101</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L13" si="3">L6+5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>100104</v>
       </c>
@@ -1284,16 +1751,42 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="1"/>
         <v>100105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>K8&amp;"|"&amp;L8&amp;";"&amp;N8&amp;"|"&amp;O8</f>
+        <v>101|25;100101|2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2">
+        <v>101</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <f>A5</f>
+        <v>100101</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>100105</v>
       </c>
@@ -1301,16 +1794,35 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="1"/>
         <v>100106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" ref="G9:G12" si="4">K9&amp;"|"&amp;L9</f>
+        <v>101|30</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>100106</v>
       </c>
@@ -1318,16 +1830,35 @@
         <v>6</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="1"/>
         <v>100107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>101|35</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2">
+        <v>101</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>100107</v>
       </c>
@@ -1335,16 +1866,35 @@
         <v>7</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="1"/>
         <v>100108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>101|40</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>100108</v>
       </c>
@@ -1352,16 +1902,35 @@
         <v>8</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="1"/>
         <v>100109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>101|45</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2">
+        <v>101</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>100109</v>
       </c>
@@ -1369,13 +1938,39 @@
         <v>9</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="1"/>
         <v>100110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>K13&amp;"|"&amp;L13&amp;";"&amp;N13&amp;"|"&amp;O13</f>
+        <v>101|50;100101|5</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="N13" s="2">
+        <f>A5</f>
+        <v>100101</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1386,56 +1981,3864 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>1002</v>
+        <v>100201</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:C23" si="5">A16</f>
+        <v>100202</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" ref="G15:G19" si="6">K15&amp;"|"&amp;L15</f>
+        <v>101|10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2">
+        <v>101</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>1003</v>
+        <v>100202</v>
       </c>
       <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="5"/>
+        <v>100203</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>101|15</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ref="H16:H23" si="7">H15+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2">
+        <v>101</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16:L23" si="8">L15+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>100203</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="5"/>
+        <v>100204</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>101|20</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="2">
+        <v>101</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2">
+        <v>100204</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="5"/>
+        <v>100205</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>K18&amp;"|"&amp;L18&amp;";"&amp;N18&amp;"|"&amp;O18</f>
+        <v>101|25;100201|2</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="7"/>
+        <v>4000</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2">
+        <v>101</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="N18" s="2">
+        <f>A15</f>
+        <v>100201</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>100205</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="5"/>
+        <v>100206</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>101|30</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="7"/>
+        <v>5000</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2">
+        <v>101</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>100206</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="5"/>
+        <v>100207</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" ref="G20:G27" si="9">K20&amp;"|"&amp;L20</f>
+        <v>101|35</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2">
+        <v>101</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>100207</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="5"/>
+        <v>100208</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>101|40</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="7"/>
+        <v>7000</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2">
+        <v>101</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>100208</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="5"/>
+        <v>100209</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>101|45</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2">
+        <v>100209</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="5"/>
+        <v>100210</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>K23&amp;"|"&amp;L23&amp;";"&amp;N23&amp;"|"&amp;O23</f>
+        <v>101|50;100201|5</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="2">
+        <v>101</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="N23" s="2">
+        <f>A15</f>
+        <v>100201</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>100210</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
+        <v>100301</v>
+      </c>
+      <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:C33" si="10">A26</f>
+        <v>100302</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>101|10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="2">
+        <v>101</v>
+      </c>
+      <c r="L25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
+        <v>100302</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="10"/>
+        <v>100303</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>101|15</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26:H33" si="11">H25+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="2">
+        <v>101</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" ref="L26:L33" si="12">L25+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
+        <v>100303</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="10"/>
+        <v>100304</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>101|20</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="2">
+        <v>101</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2">
+        <v>100304</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="10"/>
+        <v>100305</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>K28&amp;"|"&amp;L28&amp;";"&amp;N28&amp;"|"&amp;O28</f>
+        <v>101|25;100301|2</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="11"/>
+        <v>4000</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="2">
+        <v>101</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="N28" s="2">
+        <f>A25</f>
+        <v>100301</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>100305</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="10"/>
+        <v>100306</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" ref="G29:G32" si="13">K29&amp;"|"&amp;L29</f>
+        <v>101|30</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="11"/>
+        <v>5000</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="2">
+        <v>101</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
+        <v>100306</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="10"/>
+        <v>100307</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>101|35</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="11"/>
+        <v>6000</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="2">
+        <v>101</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>100307</v>
+      </c>
+      <c r="B31" s="2">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="10"/>
+        <v>100308</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>101|40</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="11"/>
+        <v>7000</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="2">
+        <v>101</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>100308</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="10"/>
+        <v>100309</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>101|45</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="11"/>
+        <v>8000</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="2">
+        <v>101</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2">
+        <v>100309</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="10"/>
+        <v>100310</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>K33&amp;"|"&amp;L33&amp;";"&amp;N33&amp;"|"&amp;O33</f>
+        <v>101|50;100301|5</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="11"/>
+        <v>9000</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="2">
+        <v>101</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="N33" s="2">
+        <f>A25</f>
+        <v>100301</v>
+      </c>
+      <c r="O33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>100310</v>
+      </c>
+      <c r="B34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
+        <v>100401</v>
+      </c>
+      <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:C43" si="14">A36</f>
+        <v>100402</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" ref="G35:G37" si="15">K35&amp;"|"&amp;L35</f>
+        <v>101|10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="2">
+        <v>101</v>
+      </c>
+      <c r="L35" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
+        <v>100402</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="14"/>
+        <v>100403</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>101|15</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" ref="H36:H43" si="16">H35+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="2">
+        <v>101</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" ref="L36:L43" si="17">L35+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2">
+        <v>100403</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="14"/>
+        <v>100404</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>101|20</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="2">
+        <v>101</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2">
+        <v>100404</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="14"/>
+        <v>100405</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f>K38&amp;"|"&amp;L38&amp;";"&amp;N38&amp;"|"&amp;O38</f>
+        <v>101|25;100401|2</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="16"/>
+        <v>4000</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="2">
+        <v>101</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="N38" s="2">
+        <f>A35</f>
+        <v>100401</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
+        <v>100405</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="14"/>
+        <v>100406</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" ref="G39:G42" si="18">K39&amp;"|"&amp;L39</f>
+        <v>101|30</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="16"/>
+        <v>5000</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="2">
+        <v>101</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
+        <v>100406</v>
+      </c>
+      <c r="B40" s="2">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="14"/>
+        <v>100407</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>101|35</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="16"/>
+        <v>6000</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="2">
+        <v>101</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
+        <v>100407</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="14"/>
+        <v>100408</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>101|40</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="16"/>
+        <v>7000</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="2">
+        <v>101</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2">
+        <v>100408</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="14"/>
+        <v>100409</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>101|45</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="16"/>
+        <v>8000</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="2">
+        <v>101</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2">
+        <v>100409</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="14"/>
+        <v>100410</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f>K43&amp;"|"&amp;L43&amp;";"&amp;N43&amp;"|"&amp;O43</f>
+        <v>101|50;100401|5</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="16"/>
+        <v>9000</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="2">
+        <v>101</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="N43" s="2">
+        <f>A35</f>
+        <v>100401</v>
+      </c>
+      <c r="O43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>100410</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2">
+        <v>100501</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:C53" si="19">A46</f>
+        <v>100502</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" ref="G45:G47" si="20">K45&amp;"|"&amp;L45</f>
+        <v>101|10</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="2">
+        <v>101</v>
+      </c>
+      <c r="L45" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
+        <v>100502</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="19"/>
+        <v>100503</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>101|15</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" ref="H46:H53" si="21">H45+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="2">
+        <v>101</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" ref="L46:L53" si="22">L45+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
+        <v>100503</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="19"/>
+        <v>100504</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>101|20</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="21"/>
+        <v>3000</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="2">
+        <v>101</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2">
+        <v>100504</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="19"/>
+        <v>100505</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f>K48&amp;"|"&amp;L48&amp;";"&amp;N48&amp;"|"&amp;O48</f>
+        <v>101|25;100501|2</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="21"/>
+        <v>4000</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="2">
+        <v>101</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="N48" s="2">
+        <f>A45</f>
+        <v>100501</v>
+      </c>
+      <c r="O48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
+        <v>100505</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="19"/>
+        <v>100506</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" ref="G49:G52" si="23">K49&amp;"|"&amp;L49</f>
+        <v>101|30</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="21"/>
+        <v>5000</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="2">
+        <v>101</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
+        <v>100506</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="19"/>
+        <v>100507</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>101|35</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="21"/>
+        <v>6000</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="2">
+        <v>101</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="22"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
+        <v>100507</v>
+      </c>
+      <c r="B51" s="2">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="19"/>
+        <v>100508</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>101|40</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="21"/>
+        <v>7000</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="2">
+        <v>101</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
+        <v>100508</v>
+      </c>
+      <c r="B52" s="2">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="19"/>
+        <v>100509</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>101|45</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="21"/>
+        <v>8000</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="2">
+        <v>101</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2">
+        <v>100509</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="19"/>
+        <v>100510</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f>K53&amp;"|"&amp;L53&amp;";"&amp;N53&amp;"|"&amp;O53</f>
+        <v>101|50;100501|5</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="21"/>
+        <v>9000</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="2">
+        <v>101</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="22"/>
+        <v>50</v>
+      </c>
+      <c r="N53" s="2">
+        <f>A45</f>
+        <v>100501</v>
+      </c>
+      <c r="O53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>100510</v>
+      </c>
+      <c r="B54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>100601</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" ref="C55:C63" si="24">A56</f>
+        <v>100602</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" ref="G55:G57" si="25">K55&amp;"|"&amp;L55</f>
+        <v>101|10</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="2">
+        <v>101</v>
+      </c>
+      <c r="L55" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
+        <v>100602</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="24"/>
+        <v>100603</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>101|15</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" ref="H56:H63" si="26">H55+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="2">
+        <v>101</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" ref="L56:L63" si="27">L55+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
+        <v>100603</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="24"/>
+        <v>100604</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>101|20</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="26"/>
+        <v>3000</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="2">
+        <v>101</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2">
+        <v>100604</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="24"/>
+        <v>100605</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="2" t="str">
+        <f>K58&amp;"|"&amp;L58&amp;";"&amp;N58&amp;"|"&amp;O58</f>
+        <v>101|25;100601|2</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="26"/>
+        <v>4000</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="2">
+        <v>101</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="N58" s="2">
+        <f>A55</f>
+        <v>100601</v>
+      </c>
+      <c r="O58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
+        <v>100605</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="24"/>
+        <v>100606</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="2" t="str">
+        <f t="shared" ref="G59:G62" si="28">K59&amp;"|"&amp;L59</f>
+        <v>101|30</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="26"/>
+        <v>5000</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="2">
+        <v>101</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2">
+        <v>100606</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="24"/>
+        <v>100607</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>101|35</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="26"/>
+        <v>6000</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="2">
+        <v>101</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="27"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2">
+        <v>100607</v>
+      </c>
+      <c r="B61" s="2">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="24"/>
+        <v>100608</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>101|40</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="26"/>
+        <v>7000</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="2">
+        <v>101</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="27"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2">
+        <v>100608</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="24"/>
+        <v>100609</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>101|45</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="26"/>
+        <v>8000</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="2">
+        <v>101</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="2">
+        <v>100609</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="24"/>
+        <v>100610</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="2" t="str">
+        <f>K63&amp;"|"&amp;L63&amp;";"&amp;N63&amp;"|"&amp;O63</f>
+        <v>101|50;100601|5</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="26"/>
+        <v>9000</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="2">
+        <v>101</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="N63" s="2">
+        <f>A55</f>
+        <v>100601</v>
+      </c>
+      <c r="O63" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>100610</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2">
+        <v>100701</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" ref="C65:C73" si="29">A66</f>
+        <v>100702</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <f t="shared" ref="G65:G67" si="30">K65&amp;"|"&amp;L65</f>
+        <v>101|10</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="2">
+        <v>101</v>
+      </c>
+      <c r="L65" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2">
+        <v>100702</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="29"/>
+        <v>100703</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>101|15</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" ref="H66:H73" si="31">H65+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="2">
+        <v>101</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" ref="L66:L73" si="32">L65+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="2">
+        <v>100703</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="29"/>
+        <v>100704</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>101|20</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" s="2">
+        <v>101</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="32"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="2">
+        <v>100704</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="29"/>
+        <v>100705</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="2" t="str">
+        <f>K68&amp;"|"&amp;L68&amp;";"&amp;N68&amp;"|"&amp;O68</f>
+        <v>101|25;100701|2</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="31"/>
+        <v>4000</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" s="2">
+        <v>101</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="32"/>
+        <v>25</v>
+      </c>
+      <c r="N68" s="2">
+        <f>A65</f>
+        <v>100701</v>
+      </c>
+      <c r="O68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2">
+        <v>100705</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="29"/>
+        <v>100706</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="2" t="str">
+        <f t="shared" ref="G69:G72" si="33">K69&amp;"|"&amp;L69</f>
+        <v>101|30</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="31"/>
+        <v>5000</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" s="2">
+        <v>101</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="32"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2">
+        <v>100706</v>
+      </c>
+      <c r="B70" s="2">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="29"/>
+        <v>100707</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>101|35</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="31"/>
+        <v>6000</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" s="2">
+        <v>101</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="32"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2">
+        <v>100707</v>
+      </c>
+      <c r="B71" s="2">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="29"/>
+        <v>100708</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>101|40</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="31"/>
+        <v>7000</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" s="2">
+        <v>101</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="32"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2">
+        <v>100708</v>
+      </c>
+      <c r="B72" s="2">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="29"/>
+        <v>100709</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>101|45</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="31"/>
+        <v>8000</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="2">
+        <v>101</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="32"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="2">
+        <v>100709</v>
+      </c>
+      <c r="B73" s="2">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="29"/>
+        <v>100710</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="2" t="str">
+        <f>K73&amp;"|"&amp;L73&amp;";"&amp;N73&amp;"|"&amp;O73</f>
+        <v>101|50;100701|5</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="31"/>
+        <v>9000</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="2">
+        <v>101</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="32"/>
+        <v>50</v>
+      </c>
+      <c r="N73" s="2">
+        <f>A65</f>
+        <v>100701</v>
+      </c>
+      <c r="O73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>100710</v>
+      </c>
+      <c r="B74" s="2">
+        <v>10</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2">
+        <v>100801</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" ref="C75:C83" si="34">A76</f>
+        <v>100802</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="2" t="str">
+        <f t="shared" ref="G75:G77" si="35">K75&amp;"|"&amp;L75</f>
+        <v>101|10</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="2">
+        <v>101</v>
+      </c>
+      <c r="L75" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="2">
+        <v>100802</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="34"/>
+        <v>100803</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>101|15</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" ref="H76:H83" si="36">H75+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="2">
+        <v>101</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" ref="L76:L83" si="37">L75+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2">
+        <v>100803</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="34"/>
+        <v>100804</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>101|20</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="36"/>
+        <v>3000</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" s="2">
+        <v>101</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="37"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="2">
+        <v>100804</v>
+      </c>
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="34"/>
+        <v>100805</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="2" t="str">
+        <f>K78&amp;"|"&amp;L78&amp;";"&amp;N78&amp;"|"&amp;O78</f>
+        <v>101|25;100801|2</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="36"/>
+        <v>4000</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="2">
+        <v>101</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="N78" s="2">
+        <f>A75</f>
+        <v>100801</v>
+      </c>
+      <c r="O78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2">
+        <v>100805</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="34"/>
+        <v>100806</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="2" t="str">
+        <f t="shared" ref="G79:G82" si="38">K79&amp;"|"&amp;L79</f>
+        <v>101|30</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="36"/>
+        <v>5000</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="2">
+        <v>101</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2">
+        <v>100806</v>
+      </c>
+      <c r="B80" s="2">
+        <v>6</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="34"/>
+        <v>100807</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>101|35</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="36"/>
+        <v>6000</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="2">
+        <v>101</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="37"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="2">
+        <v>100807</v>
+      </c>
+      <c r="B81" s="2">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="34"/>
+        <v>100808</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>101|40</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="36"/>
+        <v>7000</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="2">
+        <v>101</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="37"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="2">
+        <v>100808</v>
+      </c>
+      <c r="B82" s="2">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="34"/>
+        <v>100809</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>101|45</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="36"/>
+        <v>8000</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" s="2">
+        <v>101</v>
+      </c>
+      <c r="L82" s="2">
+        <f t="shared" si="37"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="2">
+        <v>100809</v>
+      </c>
+      <c r="B83" s="2">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="34"/>
+        <v>100810</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="2" t="str">
+        <f>K83&amp;"|"&amp;L83&amp;";"&amp;N83&amp;"|"&amp;O83</f>
+        <v>101|50;100801|5</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="36"/>
+        <v>9000</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="2">
+        <v>101</v>
+      </c>
+      <c r="L83" s="2">
+        <f t="shared" si="37"/>
+        <v>50</v>
+      </c>
+      <c r="N83" s="2">
+        <f>A75</f>
+        <v>100801</v>
+      </c>
+      <c r="O83" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>100810</v>
+      </c>
+      <c r="B84" s="2">
+        <v>10</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="2">
+        <v>100901</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" ref="C85:C93" si="39">A86</f>
+        <v>100902</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" s="2" t="str">
+        <f t="shared" ref="G85:G87" si="40">K85&amp;"|"&amp;L85</f>
+        <v>101|10</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="2">
+        <v>101</v>
+      </c>
+      <c r="L85" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="2">
+        <v>100902</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="39"/>
+        <v>100903</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>101|15</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" ref="H86:H93" si="41">H85+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" s="2">
+        <v>101</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" ref="L86:L93" si="42">L85+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="2">
+        <v>100903</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="39"/>
+        <v>100904</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" s="2" t="str">
+        <f t="shared" si="40"/>
+        <v>101|20</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="41"/>
+        <v>3000</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" s="2">
+        <v>101</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="2">
+        <v>100904</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="39"/>
+        <v>100905</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="2" t="str">
+        <f>K88&amp;"|"&amp;L88&amp;";"&amp;N88&amp;"|"&amp;O88</f>
+        <v>101|25;100901|2</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="41"/>
+        <v>4000</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="2">
+        <v>101</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="N88" s="2">
+        <f>A85</f>
+        <v>100901</v>
+      </c>
+      <c r="O88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="2">
+        <v>100905</v>
+      </c>
+      <c r="B89" s="2">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="39"/>
+        <v>100906</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="2" t="str">
+        <f t="shared" ref="G89:G92" si="43">K89&amp;"|"&amp;L89</f>
+        <v>101|30</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="41"/>
+        <v>5000</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="2">
+        <v>101</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="2">
+        <v>100906</v>
+      </c>
+      <c r="B90" s="2">
+        <v>6</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="39"/>
+        <v>100907</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>101|35</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="41"/>
+        <v>6000</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" s="2">
+        <v>101</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="42"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2">
+        <v>100907</v>
+      </c>
+      <c r="B91" s="2">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="39"/>
+        <v>100908</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>101|40</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="41"/>
+        <v>7000</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" s="2">
+        <v>101</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="42"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="2">
+        <v>100908</v>
+      </c>
+      <c r="B92" s="2">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="39"/>
+        <v>100909</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="2" t="str">
+        <f t="shared" si="43"/>
+        <v>101|45</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="41"/>
+        <v>8000</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="2">
+        <v>101</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="42"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="2">
+        <v>100909</v>
+      </c>
+      <c r="B93" s="2">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="39"/>
+        <v>100910</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" s="2" t="str">
+        <f>K93&amp;"|"&amp;L93&amp;";"&amp;N93&amp;"|"&amp;O93</f>
+        <v>101|50;100901|5</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="41"/>
+        <v>9000</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" s="2">
+        <v>101</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="N93" s="2">
+        <f>A85</f>
+        <v>100901</v>
+      </c>
+      <c r="O93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>100910</v>
+      </c>
+      <c r="B94" s="2">
+        <v>10</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2">
+        <v>101001</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" ref="C95:C103" si="44">A96</f>
+        <v>101002</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" s="2" t="str">
+        <f t="shared" ref="G95:G97" si="45">K95&amp;"|"&amp;L95</f>
+        <v>101|10</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" s="2">
+        <v>101</v>
+      </c>
+      <c r="L95" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2">
+        <v>101002</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="44"/>
+        <v>101003</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" s="2" t="str">
+        <f t="shared" si="45"/>
+        <v>101|15</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" ref="H96:H103" si="46">H95+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" s="2">
+        <v>101</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" ref="L96:L103" si="47">L95+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2">
+        <v>101003</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="44"/>
+        <v>101004</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" s="2" t="str">
+        <f t="shared" si="45"/>
+        <v>101|20</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="46"/>
+        <v>3000</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="2">
+        <v>101</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="47"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2">
+        <v>101004</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="44"/>
+        <v>101005</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="2" t="str">
+        <f>K98&amp;"|"&amp;L98&amp;";"&amp;N98&amp;"|"&amp;O98</f>
+        <v>101|25;101001|2</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="46"/>
+        <v>4000</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="2">
+        <v>101</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="47"/>
+        <v>25</v>
+      </c>
+      <c r="N98" s="2">
+        <f>A95</f>
+        <v>101001</v>
+      </c>
+      <c r="O98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="2">
+        <v>101005</v>
+      </c>
+      <c r="B99" s="2">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="44"/>
+        <v>101006</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" s="2" t="str">
+        <f t="shared" ref="G99:G102" si="48">K99&amp;"|"&amp;L99</f>
+        <v>101|30</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="46"/>
+        <v>5000</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="2">
+        <v>101</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="47"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="2">
+        <v>101006</v>
+      </c>
+      <c r="B100" s="2">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="44"/>
+        <v>101007</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>101|35</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="46"/>
+        <v>6000</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" s="2">
+        <v>101</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="47"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="2">
+        <v>101007</v>
+      </c>
+      <c r="B101" s="2">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="44"/>
+        <v>101008</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>101|40</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="46"/>
+        <v>7000</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" s="2">
+        <v>101</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="47"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="2">
+        <v>101008</v>
+      </c>
+      <c r="B102" s="2">
+        <v>8</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="44"/>
+        <v>101009</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v>101|45</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" si="46"/>
+        <v>8000</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K102" s="2">
+        <v>101</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="47"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="2">
+        <v>101009</v>
+      </c>
+      <c r="B103" s="2">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="44"/>
+        <v>101010</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" s="2" t="str">
+        <f>K103&amp;"|"&amp;L103&amp;";"&amp;N103&amp;"|"&amp;O103</f>
+        <v>101|50;101001|5</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" si="46"/>
+        <v>9000</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" s="2">
+        <v>101</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="47"/>
+        <v>50</v>
+      </c>
+      <c r="N103" s="2">
+        <f>A95</f>
+        <v>101001</v>
+      </c>
+      <c r="O103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>101010</v>
+      </c>
+      <c r="B104" s="2">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="2">
+        <v>101101</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" ref="C105:C113" si="49">A106</f>
+        <v>101102</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="2" t="str">
+        <f t="shared" ref="G105:G107" si="50">K105&amp;"|"&amp;L105</f>
+        <v>101|10</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" s="2">
+        <v>101</v>
+      </c>
+      <c r="L105" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="2">
+        <v>101102</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="49"/>
+        <v>101103</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>101|15</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" ref="H106:H113" si="51">H105+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" s="2">
+        <v>101</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" ref="L106:L113" si="52">L105+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="2">
+        <v>101103</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="49"/>
+        <v>101104</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>101|20</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="51"/>
+        <v>3000</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="2">
+        <v>101</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="2">
+        <v>101104</v>
+      </c>
+      <c r="B108" s="2">
+        <v>4</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="49"/>
+        <v>101105</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="2" t="str">
+        <f>K108&amp;"|"&amp;L108&amp;";"&amp;N108&amp;"|"&amp;O108</f>
+        <v>101|25;101101|2</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" si="51"/>
+        <v>4000</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="2">
+        <v>101</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="N108" s="2">
+        <f>A105</f>
+        <v>101101</v>
+      </c>
+      <c r="O108" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="2">
+        <v>101105</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="49"/>
+        <v>101106</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" s="2" t="str">
+        <f t="shared" ref="G109:G112" si="53">K109&amp;"|"&amp;L109</f>
+        <v>101|30</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" si="51"/>
+        <v>5000</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" s="2">
+        <v>101</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="52"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="2">
+        <v>101106</v>
+      </c>
+      <c r="B110" s="2">
+        <v>6</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="49"/>
+        <v>101107</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G110" s="2" t="str">
+        <f t="shared" si="53"/>
+        <v>101|35</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" si="51"/>
+        <v>6000</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" s="2">
+        <v>101</v>
+      </c>
+      <c r="L110" s="2">
+        <f t="shared" si="52"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="2">
+        <v>101107</v>
+      </c>
+      <c r="B111" s="2">
+        <v>7</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="49"/>
+        <v>101108</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G111" s="2" t="str">
+        <f t="shared" si="53"/>
+        <v>101|40</v>
+      </c>
+      <c r="H111" s="2">
+        <f t="shared" si="51"/>
+        <v>7000</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" s="2">
+        <v>101</v>
+      </c>
+      <c r="L111" s="2">
+        <f t="shared" si="52"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="2">
+        <v>101108</v>
+      </c>
+      <c r="B112" s="2">
+        <v>8</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="49"/>
+        <v>101109</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G112" s="2" t="str">
+        <f t="shared" si="53"/>
+        <v>101|45</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" si="51"/>
+        <v>8000</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="2">
+        <v>101</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="52"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="2">
+        <v>101109</v>
+      </c>
+      <c r="B113" s="2">
+        <v>9</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="49"/>
+        <v>101110</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" s="2" t="str">
+        <f>K113&amp;"|"&amp;L113&amp;";"&amp;N113&amp;"|"&amp;O113</f>
+        <v>101|50;101101|5</v>
+      </c>
+      <c r="H113" s="2">
+        <f t="shared" si="51"/>
+        <v>9000</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="2">
+        <v>101</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" si="52"/>
+        <v>50</v>
+      </c>
+      <c r="N113" s="2">
+        <f>A105</f>
+        <v>101101</v>
+      </c>
+      <c r="O113" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
+        <v>101110</v>
+      </c>
+      <c r="B114" s="2">
+        <v>10</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="2">
+        <v>101201</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" ref="C115:C123" si="54">A116</f>
+        <v>101202</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" s="2" t="str">
+        <f t="shared" ref="G115:G117" si="55">K115&amp;"|"&amp;L115</f>
+        <v>101|10</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="2">
+        <v>101</v>
+      </c>
+      <c r="L115" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="2">
+        <v>101202</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="54"/>
+        <v>101203</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G116" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v>101|15</v>
+      </c>
+      <c r="H116" s="2">
+        <f t="shared" ref="H116:H123" si="56">H115+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116" s="2">
+        <v>101</v>
+      </c>
+      <c r="L116" s="2">
+        <f t="shared" ref="L116:L123" si="57">L115+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="2">
+        <v>101203</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="54"/>
+        <v>101204</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v>101|20</v>
+      </c>
+      <c r="H117" s="2">
+        <f t="shared" si="56"/>
+        <v>3000</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" s="2">
+        <v>101</v>
+      </c>
+      <c r="L117" s="2">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="2">
+        <v>101204</v>
+      </c>
+      <c r="B118" s="2">
+        <v>4</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="54"/>
+        <v>101205</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118" s="2" t="str">
+        <f>K118&amp;"|"&amp;L118&amp;";"&amp;N118&amp;"|"&amp;O118</f>
+        <v>101|25;101201|2</v>
+      </c>
+      <c r="H118" s="2">
+        <f t="shared" si="56"/>
+        <v>4000</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" s="2">
+        <v>101</v>
+      </c>
+      <c r="L118" s="2">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="N118" s="2">
+        <f>A115</f>
+        <v>101201</v>
+      </c>
+      <c r="O118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="2">
+        <v>101205</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="54"/>
+        <v>101206</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" s="2" t="str">
+        <f t="shared" ref="G119:G122" si="58">K119&amp;"|"&amp;L119</f>
+        <v>101|30</v>
+      </c>
+      <c r="H119" s="2">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" s="2">
+        <v>101</v>
+      </c>
+      <c r="L119" s="2">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="2">
+        <v>101206</v>
+      </c>
+      <c r="B120" s="2">
+        <v>6</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" si="54"/>
+        <v>101207</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G120" s="2" t="str">
+        <f t="shared" si="58"/>
+        <v>101|35</v>
+      </c>
+      <c r="H120" s="2">
+        <f t="shared" si="56"/>
+        <v>6000</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" s="2">
+        <v>101</v>
+      </c>
+      <c r="L120" s="2">
+        <f t="shared" si="57"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="2">
+        <v>101207</v>
+      </c>
+      <c r="B121" s="2">
+        <v>7</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="54"/>
+        <v>101208</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121" s="2" t="str">
+        <f t="shared" si="58"/>
+        <v>101|40</v>
+      </c>
+      <c r="H121" s="2">
+        <f t="shared" si="56"/>
+        <v>7000</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" s="2">
+        <v>101</v>
+      </c>
+      <c r="L121" s="2">
+        <f t="shared" si="57"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="2">
+        <v>101208</v>
+      </c>
+      <c r="B122" s="2">
+        <v>8</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="54"/>
+        <v>101209</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" s="2" t="str">
+        <f t="shared" si="58"/>
+        <v>101|45</v>
+      </c>
+      <c r="H122" s="2">
+        <f t="shared" si="56"/>
+        <v>8000</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122" s="2">
+        <v>101</v>
+      </c>
+      <c r="L122" s="2">
+        <f t="shared" si="57"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="2">
+        <v>101209</v>
+      </c>
+      <c r="B123" s="2">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="54"/>
+        <v>101210</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" s="2" t="str">
+        <f>K123&amp;"|"&amp;L123&amp;";"&amp;N123&amp;"|"&amp;O123</f>
+        <v>101|50;101201|5</v>
+      </c>
+      <c r="H123" s="2">
+        <f t="shared" si="56"/>
+        <v>9000</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K123" s="2">
+        <v>101</v>
+      </c>
+      <c r="L123" s="2">
+        <f t="shared" si="57"/>
+        <v>50</v>
+      </c>
+      <c r="N123" s="2">
+        <f>A115</f>
+        <v>101201</v>
+      </c>
+      <c r="O123" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>101210</v>
+      </c>
+      <c r="B124" s="2">
+        <v>10</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D15">
+  <sortState ref="A3:E15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="230">
   <si>
     <t>装备ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t>属性数值</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>材料名称</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>ParamValue</t>
+  </si>
+  <si>
+    <t>Desc</t>
   </si>
   <si>
     <t>Katana1</t>
@@ -708,9 +714,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -731,37 +737,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -769,22 +744,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,15 +765,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,7 +797,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,8 +818,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,14 +842,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -868,7 +851,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,19 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +931,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,61 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,19 +1009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,13 +1033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,19 +1063,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,6 +1116,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1125,11 +1140,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,6 +1166,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,39 +1205,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1213,10 +1219,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,133 +1231,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1736,12 +1742,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S184"/>
+  <dimension ref="A1:T184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD19"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1751,12 +1757,12 @@
     <col min="6" max="6" width="16.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.2222222222222" style="6" customWidth="1"/>
     <col min="8" max="9" width="23" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.8888888888889" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.1111111111111" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="10" max="11" width="36.8888888888889" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.1111111111111" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>11</v>
@@ -1806,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>11</v>
@@ -1814,131 +1820,143 @@
       <c r="S1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:19">
+      <c r="T1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
+        <v>15</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:13">
+        <v>27</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:14">
       <c r="A5" s="2">
         <v>100101</v>
       </c>
@@ -1950,31 +1968,30 @@
         <v>100102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="2" t="str">
-        <f t="shared" ref="H5:H7" si="0">L5&amp;"|"&amp;M5</f>
+        <f t="shared" ref="H5:H8" si="0">M5&amp;"|"&amp;N5</f>
         <v>1036|10</v>
       </c>
       <c r="I5" s="2">
         <v>1000</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
         <v>1036</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:13">
+    <row r="6" s="2" customFormat="1" spans="1:14">
       <c r="A6" s="2">
         <v>100102</v>
       </c>
@@ -1986,12 +2003,11 @@
         <v>100103</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="8"/>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2001,18 +2017,18 @@
         <f>I5+1000</f>
         <v>2000</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
         <v>1036</v>
       </c>
-      <c r="M6" s="2">
-        <f>M5+5</f>
+      <c r="N6" s="2">
+        <f>N5+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:13">
+    <row r="7" s="2" customFormat="1" spans="1:14">
       <c r="A7" s="2">
         <v>100103</v>
       </c>
@@ -2024,12 +2040,11 @@
         <v>100104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2039,18 +2054,18 @@
         <f t="shared" ref="I7:I18" si="2">I6+1000</f>
         <v>3000</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
         <v>1036</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" ref="M7:M14" si="3">M6+5</f>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N14" si="3">N6+5</f>
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:13">
+    <row r="8" s="2" customFormat="1" spans="1:14">
       <c r="A8" s="2">
         <v>100104</v>
       </c>
@@ -2062,33 +2077,32 @@
         <v>100105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="2" t="str">
-        <f>L8&amp;"|"&amp;M8</f>
+        <f t="shared" si="0"/>
         <v>1036|25</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
         <v>1036</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:16">
+    <row r="9" s="2" customFormat="1" spans="1:17">
       <c r="A9" s="2">
         <v>100105</v>
       </c>
@@ -2100,44 +2114,43 @@
         <v>100106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="2" t="str">
-        <f>L9&amp;"|"&amp;M9&amp;";"&amp;O9&amp;"|"&amp;P9</f>
+        <f>M9&amp;"|"&amp;N9&amp;";"&amp;P9&amp;"|"&amp;Q9</f>
         <v>1036|30;100101|2</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2">
         <v>1036</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="O9" s="2" t="str">
         <f>D5</f>
         <v>Katana1</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <f>A5</f>
         <v>100101</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:13">
+    <row r="10" s="2" customFormat="1" spans="1:14">
       <c r="A10" s="2">
         <v>100106</v>
       </c>
@@ -2149,33 +2162,32 @@
         <v>100107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="2" t="str">
-        <f t="shared" ref="H9:H12" si="4">L10&amp;"|"&amp;M10</f>
+        <f t="shared" ref="H9:H13" si="4">M10&amp;"|"&amp;N10</f>
         <v>1036|35</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2">
         <v>1036</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:13">
+    <row r="11" s="2" customFormat="1" spans="1:14">
       <c r="A11" s="2">
         <v>100107</v>
       </c>
@@ -2187,12 +2199,11 @@
         <v>100108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2202,18 +2213,18 @@
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2">
         <v>1036</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:13">
+    <row r="12" s="2" customFormat="1" spans="1:14">
       <c r="A12" s="2">
         <v>100108</v>
       </c>
@@ -2225,12 +2236,11 @@
         <v>100109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2240,18 +2250,18 @@
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2">
         <v>1036</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:13">
+    <row r="13" s="2" customFormat="1" spans="1:14">
       <c r="A13" s="2">
         <v>100109</v>
       </c>
@@ -2263,33 +2273,32 @@
         <v>100110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="2" t="str">
-        <f>L13&amp;"|"&amp;M13</f>
+        <f t="shared" si="4"/>
         <v>1036|50</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2">
         <v>1036</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:16">
+    <row r="14" s="2" customFormat="1" spans="1:17">
       <c r="A14" s="2">
         <v>100110</v>
       </c>
@@ -2301,44 +2310,43 @@
         <v>100111</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="2" t="str">
-        <f>L14&amp;"|"&amp;M14&amp;";"&amp;O14&amp;"|"&amp;P14</f>
+        <f>M14&amp;"|"&amp;N14&amp;";"&amp;P14&amp;"|"&amp;Q14</f>
         <v>1005|55;100101|5</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="L14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="2">
         <v>1005</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="N14" s="2" t="str">
+      <c r="O14" s="2" t="str">
         <f>D5</f>
         <v>Katana1</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <f>A5</f>
         <v>100101</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:13">
+    <row r="15" s="2" customFormat="1" spans="1:14">
       <c r="A15" s="2">
         <v>100111</v>
       </c>
@@ -2350,33 +2358,32 @@
         <v>100112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="2" t="str">
-        <f t="shared" ref="H15:H17" si="5">L15&amp;"|"&amp;M15</f>
+        <f t="shared" ref="H15:H17" si="5">M15&amp;"|"&amp;N15</f>
         <v>1005|60</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="L15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="2">
         <v>1005</v>
       </c>
-      <c r="M15" s="2">
-        <f t="shared" ref="M15:M18" si="6">M14+5</f>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15:N18" si="6">N14+5</f>
         <v>60</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:13">
+    <row r="16" s="2" customFormat="1" spans="1:14">
       <c r="A16" s="2">
         <v>100112</v>
       </c>
@@ -2388,12 +2395,11 @@
         <v>100113</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2403,18 +2409,18 @@
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="L16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="2">
         <v>1005</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:13">
+    <row r="17" s="2" customFormat="1" spans="1:14">
       <c r="A17" s="2">
         <v>100113</v>
       </c>
@@ -2426,12 +2432,11 @@
         <v>100114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2441,18 +2446,18 @@
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="L17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="2">
         <v>1005</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:16">
+    <row r="18" s="2" customFormat="1" spans="1:17">
       <c r="A18" s="2">
         <v>100114</v>
       </c>
@@ -2464,40 +2469,39 @@
         <v>100115</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="2" t="str">
-        <f>L18&amp;"|"&amp;M18&amp;";"&amp;O18&amp;"|"&amp;P18</f>
+        <f>M18&amp;"|"&amp;N18&amp;";"&amp;P18&amp;"|"&amp;Q18</f>
         <v>1005|75;100101|8</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="L18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="2">
         <v>1005</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="N18" s="2" t="str">
+      <c r="O18" s="2" t="str">
         <f>D5</f>
         <v>Katana1</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <f>A5</f>
         <v>100101</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>8</v>
       </c>
     </row>
@@ -2508,17 +2512,15 @@
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:13">
+    <row r="20" s="3" customFormat="1" spans="1:14">
       <c r="A20" s="3">
         <v>100201</v>
       </c>
@@ -2530,32 +2532,30 @@
         <v>100202</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="3" t="str">
-        <f t="shared" ref="H20:H23" si="7">L20&amp;"|"&amp;M20</f>
+        <f t="shared" ref="H20:H23" si="7">M20&amp;"|"&amp;N20</f>
         <v>1036|10</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="3">
         <v>1036</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:13">
+    <row r="21" s="3" customFormat="1" spans="1:14">
       <c r="A21" s="3">
         <v>100202</v>
       </c>
@@ -2567,12 +2567,11 @@
         <v>100203</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="3" t="str">
         <f t="shared" si="7"/>
@@ -2582,18 +2581,18 @@
         <f t="shared" ref="I21:I33" si="9">I20+1000</f>
         <v>2000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="3">
         <v>1036</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" ref="M21:M33" si="10">M20+5</f>
+      <c r="N21" s="3">
+        <f t="shared" ref="N21:N33" si="10">N20+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:13">
+    <row r="22" s="3" customFormat="1" spans="1:14">
       <c r="A22" s="3">
         <v>100203</v>
       </c>
@@ -2605,12 +2604,11 @@
         <v>100204</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="3" t="str">
         <f t="shared" si="7"/>
@@ -2620,18 +2618,18 @@
         <f t="shared" si="9"/>
         <v>3000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="3">
         <v>1036</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:13">
+    <row r="23" s="3" customFormat="1" spans="1:14">
       <c r="A23" s="3">
         <v>100204</v>
       </c>
@@ -2643,12 +2641,11 @@
         <v>100205</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="3" t="str">
         <f t="shared" si="7"/>
@@ -2658,18 +2655,18 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="3">
         <v>1036</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:16">
+    <row r="24" s="3" customFormat="1" spans="1:17">
       <c r="A24" s="3">
         <v>100205</v>
       </c>
@@ -2681,44 +2678,43 @@
         <v>100206</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="3" t="str">
-        <f>L24&amp;"|"&amp;M24&amp;";"&amp;O24&amp;"|"&amp;P24</f>
+        <f>M24&amp;"|"&amp;N24&amp;";"&amp;P24&amp;"|"&amp;Q24</f>
         <v>1036|30;100201|2</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="3">
         <v>1036</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="N24" s="3" t="str">
+      <c r="O24" s="3" t="str">
         <f>D20</f>
         <v>Gun1</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <f>A20</f>
         <v>100201</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:13">
+    <row r="25" s="3" customFormat="1" spans="1:14">
       <c r="A25" s="3">
         <v>100206</v>
       </c>
@@ -2730,33 +2726,32 @@
         <v>100207</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="3" t="str">
-        <f t="shared" ref="H25:H28" si="11">L25&amp;"|"&amp;M25</f>
+        <f t="shared" ref="H25:H28" si="11">M25&amp;"|"&amp;N25</f>
         <v>1036|35</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="L25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="3">
         <v>1036</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:13">
+    <row r="26" s="3" customFormat="1" spans="1:14">
       <c r="A26" s="3">
         <v>100207</v>
       </c>
@@ -2768,12 +2763,11 @@
         <v>100208</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="3" t="str">
         <f t="shared" si="11"/>
@@ -2783,18 +2777,18 @@
         <f t="shared" si="9"/>
         <v>7000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="3">
         <v>1036</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:13">
+    <row r="27" s="3" customFormat="1" spans="1:14">
       <c r="A27" s="3">
         <v>100208</v>
       </c>
@@ -2806,12 +2800,11 @@
         <v>100209</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="3" t="str">
         <f t="shared" si="11"/>
@@ -2821,18 +2814,18 @@
         <f t="shared" si="9"/>
         <v>8000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="3">
         <v>1036</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:13">
+    <row r="28" s="3" customFormat="1" spans="1:14">
       <c r="A28" s="3">
         <v>100209</v>
       </c>
@@ -2844,12 +2837,11 @@
         <v>100210</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="3" t="str">
         <f t="shared" si="11"/>
@@ -2859,18 +2851,18 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="3">
+      <c r="L28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="3">
         <v>1036</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:16">
+    <row r="29" s="3" customFormat="1" spans="1:17">
       <c r="A29" s="3">
         <v>100210</v>
       </c>
@@ -2882,44 +2874,43 @@
         <v>100211</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="3" t="str">
-        <f>L29&amp;"|"&amp;M29&amp;";"&amp;O29&amp;"|"&amp;P29</f>
+        <f>M29&amp;"|"&amp;N29&amp;";"&amp;P29&amp;"|"&amp;Q29</f>
         <v>1008|55;100201|5</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="3">
         <v>1008</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="N29" s="3" t="str">
+      <c r="O29" s="3" t="str">
         <f>D20</f>
         <v>Gun1</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <f>A20</f>
         <v>100201</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:13">
+    <row r="30" s="3" customFormat="1" spans="1:14">
       <c r="A30" s="3">
         <v>100211</v>
       </c>
@@ -2931,33 +2922,32 @@
         <v>100212</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3" t="str">
-        <f t="shared" ref="H30:H32" si="12">L30&amp;"|"&amp;M30</f>
+        <f t="shared" ref="H30:H32" si="12">M30&amp;"|"&amp;N30</f>
         <v>1008|60</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="9"/>
         <v>11000</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="L30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="3">
         <v>1008</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:13">
+    <row r="31" s="3" customFormat="1" spans="1:14">
       <c r="A31" s="3">
         <v>100212</v>
       </c>
@@ -2969,12 +2959,11 @@
         <v>100213</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3" t="str">
         <f t="shared" si="12"/>
@@ -2984,18 +2973,18 @@
         <f t="shared" si="9"/>
         <v>12000</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="L31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="3">
         <v>1008</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:13">
+    <row r="32" s="3" customFormat="1" spans="1:14">
       <c r="A32" s="3">
         <v>100213</v>
       </c>
@@ -3007,12 +2996,11 @@
         <v>100214</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G32" s="10"/>
       <c r="H32" s="3" t="str">
         <f t="shared" si="12"/>
@@ -3022,18 +3010,18 @@
         <f t="shared" si="9"/>
         <v>13000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="3">
         <v>1008</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:16">
+    <row r="33" s="3" customFormat="1" spans="1:17">
       <c r="A33" s="3">
         <v>100214</v>
       </c>
@@ -3045,40 +3033,39 @@
         <v>100215</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="3" t="str">
-        <f>L33&amp;"|"&amp;M33&amp;";"&amp;O33&amp;"|"&amp;P33</f>
+        <f>M33&amp;"|"&amp;N33&amp;";"&amp;P33&amp;"|"&amp;Q33</f>
         <v>1008|75;100201|8</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="9"/>
         <v>14000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="3">
         <v>1008</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="N33" s="3" t="str">
+      <c r="O33" s="3" t="str">
         <f>D20</f>
         <v>Gun1</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <f>A20</f>
         <v>100201</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8</v>
       </c>
     </row>
@@ -3089,17 +3076,15 @@
       <c r="B34" s="3">
         <v>15</v>
       </c>
-      <c r="C34" s="3"/>
       <c r="D34" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:13">
+    <row r="35" s="2" customFormat="1" spans="1:14">
       <c r="A35" s="2">
         <v>100301</v>
       </c>
@@ -3111,32 +3096,30 @@
         <v>100302</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="2" t="str">
-        <f t="shared" ref="H35:H38" si="13">L35&amp;"|"&amp;M35</f>
+        <f t="shared" ref="H35:H38" si="13">M35&amp;"|"&amp;N35</f>
         <v>1005|10</v>
       </c>
       <c r="I35" s="2">
         <v>1000</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="L35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M35" s="2">
         <v>1005</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:13">
+    <row r="36" s="2" customFormat="1" spans="1:14">
       <c r="A36" s="2">
         <v>100302</v>
       </c>
@@ -3148,12 +3131,11 @@
         <v>100303</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="2" t="str">
         <f t="shared" si="13"/>
@@ -3163,18 +3145,18 @@
         <f t="shared" ref="I36:I48" si="15">I35+1000</f>
         <v>2000</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L36" s="2">
+      <c r="L36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="2">
         <v>1005</v>
       </c>
-      <c r="M36" s="2">
-        <f t="shared" ref="M36:M48" si="16">M35+5</f>
+      <c r="N36" s="2">
+        <f t="shared" ref="N36:N48" si="16">N35+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:13">
+    <row r="37" s="2" customFormat="1" spans="1:14">
       <c r="A37" s="2">
         <v>100303</v>
       </c>
@@ -3186,12 +3168,11 @@
         <v>100304</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="2" t="str">
         <f t="shared" si="13"/>
@@ -3201,18 +3182,18 @@
         <f t="shared" si="15"/>
         <v>3000</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="L37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" s="2">
         <v>1005</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <f t="shared" si="16"/>
         <v>20</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:13">
+    <row r="38" s="2" customFormat="1" spans="1:14">
       <c r="A38" s="2">
         <v>100304</v>
       </c>
@@ -3224,12 +3205,11 @@
         <v>100305</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="2" t="str">
         <f t="shared" si="13"/>
@@ -3239,18 +3219,18 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="2">
         <v>1005</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <f t="shared" si="16"/>
         <v>25</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:16">
+    <row r="39" s="2" customFormat="1" spans="1:17">
       <c r="A39" s="2">
         <v>100305</v>
       </c>
@@ -3262,44 +3242,43 @@
         <v>100306</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="2" t="str">
-        <f>L39&amp;"|"&amp;M39&amp;";"&amp;O39&amp;"|"&amp;P39</f>
+        <f>M39&amp;"|"&amp;N39&amp;";"&amp;P39&amp;"|"&amp;Q39</f>
         <v>1046|30;100301|2</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="15"/>
         <v>5000</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="L39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" s="2">
         <v>1046</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="N39" s="2" t="str">
+      <c r="O39" s="2" t="str">
         <f>D35</f>
         <v>Staff1</v>
       </c>
-      <c r="O39" s="2">
+      <c r="P39" s="2">
         <f>A35</f>
         <v>100301</v>
       </c>
-      <c r="P39" s="2">
+      <c r="Q39" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:13">
+    <row r="40" s="2" customFormat="1" spans="1:14">
       <c r="A40" s="2">
         <v>100306</v>
       </c>
@@ -3311,33 +3290,32 @@
         <v>100307</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="2" t="str">
-        <f t="shared" ref="H40:H43" si="17">L40&amp;"|"&amp;M40</f>
+        <f t="shared" ref="H40:H43" si="17">M40&amp;"|"&amp;N40</f>
         <v>1046|35</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L40" s="2">
+      <c r="L40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="2">
         <v>1046</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <f t="shared" si="16"/>
         <v>35</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:13">
+    <row r="41" s="2" customFormat="1" spans="1:14">
       <c r="A41" s="2">
         <v>100307</v>
       </c>
@@ -3349,12 +3327,11 @@
         <v>100308</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="2" t="str">
         <f t="shared" si="17"/>
@@ -3364,18 +3341,18 @@
         <f t="shared" si="15"/>
         <v>7000</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="L41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" s="2">
         <v>1046</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <f t="shared" si="16"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:13">
+    <row r="42" s="2" customFormat="1" spans="1:14">
       <c r="A42" s="2">
         <v>100308</v>
       </c>
@@ -3387,12 +3364,11 @@
         <v>100309</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="2" t="str">
         <f t="shared" si="17"/>
@@ -3402,18 +3378,18 @@
         <f t="shared" si="15"/>
         <v>8000</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L42" s="2">
+      <c r="L42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" s="2">
         <v>1046</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <f t="shared" si="16"/>
         <v>45</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:13">
+    <row r="43" s="2" customFormat="1" spans="1:14">
       <c r="A43" s="2">
         <v>100309</v>
       </c>
@@ -3425,12 +3401,11 @@
         <v>100310</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="2" t="str">
         <f t="shared" si="17"/>
@@ -3440,18 +3415,18 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" s="2">
+      <c r="L43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="2">
         <v>1046</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:16">
+    <row r="44" s="2" customFormat="1" spans="1:17">
       <c r="A44" s="2">
         <v>100310</v>
       </c>
@@ -3463,44 +3438,43 @@
         <v>100311</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="2" t="str">
-        <f>L44&amp;"|"&amp;M44&amp;";"&amp;O44&amp;"|"&amp;P44</f>
+        <f>M44&amp;"|"&amp;N44&amp;";"&amp;P44&amp;"|"&amp;Q44</f>
         <v>1005|55;100301|5</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="15"/>
         <v>10000</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="2">
+      <c r="L44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M44" s="2">
         <v>1005</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <f t="shared" si="16"/>
         <v>55</v>
       </c>
-      <c r="N44" s="2" t="str">
+      <c r="O44" s="2" t="str">
         <f>D35</f>
         <v>Staff1</v>
       </c>
-      <c r="O44" s="2">
+      <c r="P44" s="2">
         <f>A35</f>
         <v>100301</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:13">
+    <row r="45" s="2" customFormat="1" spans="1:14">
       <c r="A45" s="2">
         <v>100311</v>
       </c>
@@ -3512,33 +3486,32 @@
         <v>100312</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="2" t="str">
-        <f t="shared" ref="H45:H47" si="18">L45&amp;"|"&amp;M45</f>
+        <f t="shared" ref="H45:H47" si="18">M45&amp;"|"&amp;N45</f>
         <v>1005|60</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="15"/>
         <v>11000</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="L45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45" s="2">
         <v>1005</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="2">
         <f t="shared" si="16"/>
         <v>60</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:13">
+    <row r="46" s="2" customFormat="1" spans="1:14">
       <c r="A46" s="2">
         <v>100312</v>
       </c>
@@ -3550,12 +3523,11 @@
         <v>100313</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="2" t="str">
         <f t="shared" si="18"/>
@@ -3565,18 +3537,18 @@
         <f t="shared" si="15"/>
         <v>12000</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L46" s="2">
+      <c r="L46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" s="2">
         <v>1005</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <f t="shared" si="16"/>
         <v>65</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:13">
+    <row r="47" s="2" customFormat="1" spans="1:14">
       <c r="A47" s="2">
         <v>100313</v>
       </c>
@@ -3588,12 +3560,11 @@
         <v>100314</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="2" t="str">
         <f t="shared" si="18"/>
@@ -3603,18 +3574,18 @@
         <f t="shared" si="15"/>
         <v>13000</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L47" s="2">
+      <c r="L47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" s="2">
         <v>1005</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <f t="shared" si="16"/>
         <v>70</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:16">
+    <row r="48" s="2" customFormat="1" spans="1:17">
       <c r="A48" s="2">
         <v>100314</v>
       </c>
@@ -3626,40 +3597,39 @@
         <v>100315</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="2" t="str">
-        <f>L48&amp;"|"&amp;M48&amp;";"&amp;O48&amp;"|"&amp;P48</f>
+        <f>M48&amp;"|"&amp;N48&amp;";"&amp;P48&amp;"|"&amp;Q48</f>
         <v>1005|75;100301|8</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="15"/>
         <v>14000</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48" s="2">
+      <c r="L48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" s="2">
         <v>1005</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="2">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="N48" s="2" t="str">
+      <c r="O48" s="2" t="str">
         <f>D35</f>
         <v>Staff1</v>
       </c>
-      <c r="O48" s="2">
+      <c r="P48" s="2">
         <f>A35</f>
         <v>100301</v>
       </c>
-      <c r="P48" s="2">
+      <c r="Q48" s="2">
         <v>8</v>
       </c>
     </row>
@@ -3670,17 +3640,15 @@
       <c r="B49" s="2">
         <v>15</v>
       </c>
-      <c r="C49" s="2"/>
       <c r="D49" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>30</v>
+      </c>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" s="3" customFormat="1" spans="1:13">
+    <row r="50" s="3" customFormat="1" spans="1:14">
       <c r="A50" s="3">
         <v>100401</v>
       </c>
@@ -3692,32 +3660,30 @@
         <v>100402</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="3" t="str">
-        <f t="shared" ref="H50:H53" si="19">L50&amp;"|"&amp;M50</f>
+        <f t="shared" ref="H50:H53" si="19">M50&amp;"|"&amp;N50</f>
         <v>1036|10</v>
       </c>
       <c r="I50" s="3">
         <v>1000</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L50" s="3">
+      <c r="L50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M50" s="3">
         <v>1036</v>
       </c>
-      <c r="M50" s="3">
+      <c r="N50" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:13">
+    <row r="51" s="3" customFormat="1" spans="1:14">
       <c r="A51" s="3">
         <v>100402</v>
       </c>
@@ -3729,12 +3695,11 @@
         <v>100403</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="3"/>
       <c r="G51" s="10"/>
       <c r="H51" s="3" t="str">
         <f t="shared" si="19"/>
@@ -3744,18 +3709,18 @@
         <f t="shared" ref="I51:I63" si="21">I50+1000</f>
         <v>2000</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="L51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M51" s="3">
         <v>1036</v>
       </c>
-      <c r="M51" s="3">
-        <f t="shared" ref="M51:M63" si="22">M50+5</f>
+      <c r="N51" s="3">
+        <f t="shared" ref="N51:N63" si="22">N50+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:13">
+    <row r="52" s="3" customFormat="1" spans="1:14">
       <c r="A52" s="3">
         <v>100403</v>
       </c>
@@ -3767,12 +3732,11 @@
         <v>100404</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G52" s="10"/>
       <c r="H52" s="3" t="str">
         <f t="shared" si="19"/>
@@ -3782,18 +3746,18 @@
         <f t="shared" si="21"/>
         <v>3000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M52" s="3">
         <v>1036</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:13">
+    <row r="53" s="3" customFormat="1" spans="1:14">
       <c r="A53" s="3">
         <v>100404</v>
       </c>
@@ -3805,12 +3769,11 @@
         <v>100405</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="3" t="str">
         <f t="shared" si="19"/>
@@ -3820,18 +3783,18 @@
         <f t="shared" si="21"/>
         <v>4000</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="L53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" s="3">
         <v>1036</v>
       </c>
-      <c r="M53" s="3">
+      <c r="N53" s="3">
         <f t="shared" si="22"/>
         <v>25</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:16">
+    <row r="54" s="3" customFormat="1" spans="1:17">
       <c r="A54" s="3">
         <v>100405</v>
       </c>
@@ -3843,44 +3806,43 @@
         <v>100406</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G54" s="10"/>
       <c r="H54" s="3" t="str">
-        <f>L54&amp;"|"&amp;M54&amp;";"&amp;O54&amp;"|"&amp;P54</f>
+        <f>M54&amp;"|"&amp;N54&amp;";"&amp;P54&amp;"|"&amp;Q54</f>
         <v>1036|30;100401|2</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="21"/>
         <v>5000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" s="3">
         <v>1036</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <f t="shared" si="22"/>
         <v>30</v>
       </c>
-      <c r="N54" s="3" t="str">
+      <c r="O54" s="3" t="str">
         <f>D50</f>
         <v>Armet1</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <f>A50</f>
         <v>100401</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1" spans="1:13">
+    <row r="55" s="3" customFormat="1" spans="1:14">
       <c r="A55" s="3">
         <v>100406</v>
       </c>
@@ -3892,33 +3854,32 @@
         <v>100407</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="H55" s="3" t="str">
-        <f t="shared" ref="H55:H58" si="23">L55&amp;"|"&amp;M55</f>
+        <f t="shared" ref="H55:H58" si="23">M55&amp;"|"&amp;N55</f>
         <v>1036|35</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="21"/>
         <v>6000</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L55" s="3">
+      <c r="L55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M55" s="3">
         <v>1036</v>
       </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
         <f t="shared" si="22"/>
         <v>35</v>
       </c>
     </row>
-    <row r="56" s="3" customFormat="1" spans="1:13">
+    <row r="56" s="3" customFormat="1" spans="1:14">
       <c r="A56" s="3">
         <v>100407</v>
       </c>
@@ -3930,12 +3891,11 @@
         <v>100408</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G56" s="10"/>
       <c r="H56" s="3" t="str">
         <f t="shared" si="23"/>
@@ -3945,18 +3905,18 @@
         <f t="shared" si="21"/>
         <v>7000</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L56" s="3">
+      <c r="L56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M56" s="3">
         <v>1036</v>
       </c>
-      <c r="M56" s="3">
+      <c r="N56" s="3">
         <f t="shared" si="22"/>
         <v>40</v>
       </c>
     </row>
-    <row r="57" s="3" customFormat="1" spans="1:13">
+    <row r="57" s="3" customFormat="1" spans="1:14">
       <c r="A57" s="3">
         <v>100408</v>
       </c>
@@ -3968,12 +3928,11 @@
         <v>100409</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G57" s="10"/>
       <c r="H57" s="3" t="str">
         <f t="shared" si="23"/>
@@ -3983,18 +3942,18 @@
         <f t="shared" si="21"/>
         <v>8000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M57" s="3">
         <v>1036</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <f t="shared" si="22"/>
         <v>45</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" spans="1:13">
+    <row r="58" s="3" customFormat="1" spans="1:14">
       <c r="A58" s="3">
         <v>100409</v>
       </c>
@@ -4006,12 +3965,11 @@
         <v>100410</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="H58" s="3" t="str">
         <f t="shared" si="23"/>
@@ -4021,18 +3979,18 @@
         <f t="shared" si="21"/>
         <v>9000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M58" s="3">
         <v>1036</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <f t="shared" si="22"/>
         <v>50</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" spans="1:16">
+    <row r="59" s="3" customFormat="1" spans="1:17">
       <c r="A59" s="3">
         <v>100410</v>
       </c>
@@ -4044,44 +4002,43 @@
         <v>100411</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G59" s="10"/>
       <c r="H59" s="3" t="str">
-        <f>L59&amp;"|"&amp;M59&amp;";"&amp;O59&amp;"|"&amp;P59</f>
+        <f>M59&amp;"|"&amp;N59&amp;";"&amp;P59&amp;"|"&amp;Q59</f>
         <v>1011|55;100401|5</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="21"/>
         <v>10000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M59" s="3">
         <v>1011</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <f t="shared" si="22"/>
         <v>55</v>
       </c>
-      <c r="N59" s="3" t="str">
+      <c r="O59" s="3" t="str">
         <f>D50</f>
         <v>Armet1</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <f>A50</f>
         <v>100401</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="60" s="3" customFormat="1" spans="1:13">
+    <row r="60" s="3" customFormat="1" spans="1:14">
       <c r="A60" s="3">
         <v>100411</v>
       </c>
@@ -4093,33 +4050,32 @@
         <v>100412</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G60" s="10"/>
       <c r="H60" s="3" t="str">
-        <f t="shared" ref="H60:H62" si="24">L60&amp;"|"&amp;M60</f>
+        <f t="shared" ref="H60:H62" si="24">M60&amp;"|"&amp;N60</f>
         <v>1011|60</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="21"/>
         <v>11000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M60" s="3">
         <v>1011</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <f t="shared" si="22"/>
         <v>60</v>
       </c>
     </row>
-    <row r="61" s="3" customFormat="1" spans="1:13">
+    <row r="61" s="3" customFormat="1" spans="1:14">
       <c r="A61" s="3">
         <v>100412</v>
       </c>
@@ -4131,12 +4087,11 @@
         <v>100413</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="H61" s="3" t="str">
         <f t="shared" si="24"/>
@@ -4146,18 +4101,18 @@
         <f t="shared" si="21"/>
         <v>12000</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="L61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M61" s="3">
         <v>1011</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <f t="shared" si="22"/>
         <v>65</v>
       </c>
     </row>
-    <row r="62" s="3" customFormat="1" spans="1:13">
+    <row r="62" s="3" customFormat="1" spans="1:14">
       <c r="A62" s="3">
         <v>100413</v>
       </c>
@@ -4169,12 +4124,11 @@
         <v>100414</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G62" s="10"/>
       <c r="H62" s="3" t="str">
         <f t="shared" si="24"/>
@@ -4184,18 +4138,18 @@
         <f t="shared" si="21"/>
         <v>13000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M62" s="3">
         <v>1011</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <f t="shared" si="22"/>
         <v>70</v>
       </c>
     </row>
-    <row r="63" s="3" customFormat="1" spans="1:16">
+    <row r="63" s="3" customFormat="1" spans="1:17">
       <c r="A63" s="3">
         <v>100414</v>
       </c>
@@ -4207,40 +4161,39 @@
         <v>100415</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G63" s="10"/>
       <c r="H63" s="3" t="str">
-        <f>L63&amp;"|"&amp;M63&amp;";"&amp;O63&amp;"|"&amp;P63</f>
+        <f>M63&amp;"|"&amp;N63&amp;";"&amp;P63&amp;"|"&amp;Q63</f>
         <v>1011|75;100401|8</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="21"/>
         <v>14000</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L63" s="3">
+      <c r="L63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M63" s="3">
         <v>1011</v>
       </c>
-      <c r="M63" s="3">
+      <c r="N63" s="3">
         <f t="shared" si="22"/>
         <v>75</v>
       </c>
-      <c r="N63" s="3" t="str">
+      <c r="O63" s="3" t="str">
         <f>D50</f>
         <v>Armet1</v>
       </c>
-      <c r="O63" s="3">
+      <c r="P63" s="3">
         <f>A50</f>
         <v>100401</v>
       </c>
-      <c r="P63" s="3">
+      <c r="Q63" s="3">
         <v>8</v>
       </c>
     </row>
@@ -4251,17 +4204,15 @@
       <c r="B64" s="3">
         <v>15</v>
       </c>
-      <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:13">
+    <row r="65" s="2" customFormat="1" spans="1:14">
       <c r="A65" s="2">
         <v>100501</v>
       </c>
@@ -4273,32 +4224,30 @@
         <v>100502</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G65" s="8"/>
       <c r="H65" s="2" t="str">
-        <f t="shared" ref="H65:H68" si="25">L65&amp;"|"&amp;M65</f>
+        <f t="shared" ref="H65:H68" si="25">M65&amp;"|"&amp;N65</f>
         <v>1036|10</v>
       </c>
       <c r="I65" s="2">
         <v>1000</v>
       </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L65" s="2">
+      <c r="L65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M65" s="2">
         <v>1036</v>
       </c>
-      <c r="M65" s="2">
+      <c r="N65" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:13">
+    <row r="66" s="2" customFormat="1" spans="1:14">
       <c r="A66" s="2">
         <v>100502</v>
       </c>
@@ -4310,12 +4259,11 @@
         <v>100503</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="2" t="str">
         <f t="shared" si="25"/>
@@ -4325,18 +4273,18 @@
         <f t="shared" ref="I66:I78" si="27">I65+1000</f>
         <v>2000</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L66" s="2">
+      <c r="L66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M66" s="2">
         <v>1036</v>
       </c>
-      <c r="M66" s="2">
-        <f t="shared" ref="M66:M78" si="28">M65+5</f>
+      <c r="N66" s="2">
+        <f t="shared" ref="N66:N78" si="28">N65+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:13">
+    <row r="67" s="2" customFormat="1" spans="1:14">
       <c r="A67" s="2">
         <v>100503</v>
       </c>
@@ -4348,12 +4296,11 @@
         <v>100504</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F67" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="2" t="str">
         <f t="shared" si="25"/>
@@ -4363,18 +4310,18 @@
         <f t="shared" si="27"/>
         <v>3000</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L67" s="2">
+      <c r="L67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M67" s="2">
         <v>1036</v>
       </c>
-      <c r="M67" s="2">
+      <c r="N67" s="2">
         <f t="shared" si="28"/>
         <v>20</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:13">
+    <row r="68" s="2" customFormat="1" spans="1:14">
       <c r="A68" s="2">
         <v>100504</v>
       </c>
@@ -4386,12 +4333,11 @@
         <v>100505</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F68" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G68" s="8"/>
       <c r="H68" s="2" t="str">
         <f t="shared" si="25"/>
@@ -4401,18 +4347,18 @@
         <f t="shared" si="27"/>
         <v>4000</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L68" s="2">
+      <c r="L68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" s="2">
         <v>1036</v>
       </c>
-      <c r="M68" s="2">
+      <c r="N68" s="2">
         <f t="shared" si="28"/>
         <v>25</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:16">
+    <row r="69" s="2" customFormat="1" spans="1:17">
       <c r="A69" s="2">
         <v>100505</v>
       </c>
@@ -4424,44 +4370,43 @@
         <v>100506</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="2" t="str">
-        <f>L69&amp;"|"&amp;M69&amp;";"&amp;O69&amp;"|"&amp;P69</f>
+        <f>M69&amp;"|"&amp;N69&amp;";"&amp;P69&amp;"|"&amp;Q69</f>
         <v>1036|30;100501|2</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="27"/>
         <v>5000</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L69" s="2">
+      <c r="L69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M69" s="2">
         <v>1036</v>
       </c>
-      <c r="M69" s="2">
+      <c r="N69" s="2">
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-      <c r="N69" s="2" t="str">
+      <c r="O69" s="2" t="str">
         <f>D65</f>
         <v>Leather Armour1</v>
       </c>
-      <c r="O69" s="2">
+      <c r="P69" s="2">
         <f>A65</f>
         <v>100501</v>
       </c>
-      <c r="P69" s="2">
+      <c r="Q69" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:13">
+    <row r="70" s="2" customFormat="1" spans="1:14">
       <c r="A70" s="2">
         <v>100506</v>
       </c>
@@ -4473,33 +4418,32 @@
         <v>100507</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G70" s="8"/>
       <c r="H70" s="2" t="str">
-        <f t="shared" ref="H70:H73" si="29">L70&amp;"|"&amp;M70</f>
+        <f t="shared" ref="H70:H73" si="29">M70&amp;"|"&amp;N70</f>
         <v>1036|35</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="27"/>
         <v>6000</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L70" s="2">
+      <c r="L70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M70" s="2">
         <v>1036</v>
       </c>
-      <c r="M70" s="2">
+      <c r="N70" s="2">
         <f t="shared" si="28"/>
         <v>35</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:13">
+    <row r="71" s="2" customFormat="1" spans="1:14">
       <c r="A71" s="2">
         <v>100507</v>
       </c>
@@ -4511,12 +4455,11 @@
         <v>100508</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="2" t="str">
         <f t="shared" si="29"/>
@@ -4526,18 +4469,18 @@
         <f t="shared" si="27"/>
         <v>7000</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L71" s="2">
+      <c r="L71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M71" s="2">
         <v>1036</v>
       </c>
-      <c r="M71" s="2">
+      <c r="N71" s="2">
         <f t="shared" si="28"/>
         <v>40</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:13">
+    <row r="72" s="2" customFormat="1" spans="1:14">
       <c r="A72" s="2">
         <v>100508</v>
       </c>
@@ -4549,12 +4492,11 @@
         <v>100509</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G72" s="8"/>
       <c r="H72" s="2" t="str">
         <f t="shared" si="29"/>
@@ -4564,18 +4506,18 @@
         <f t="shared" si="27"/>
         <v>8000</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L72" s="2">
+      <c r="L72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M72" s="2">
         <v>1036</v>
       </c>
-      <c r="M72" s="2">
+      <c r="N72" s="2">
         <f t="shared" si="28"/>
         <v>45</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:13">
+    <row r="73" s="2" customFormat="1" spans="1:14">
       <c r="A73" s="2">
         <v>100509</v>
       </c>
@@ -4587,12 +4529,11 @@
         <v>100510</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="2" t="str">
         <f t="shared" si="29"/>
@@ -4602,18 +4543,18 @@
         <f t="shared" si="27"/>
         <v>9000</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L73" s="2">
+      <c r="L73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M73" s="2">
         <v>1036</v>
       </c>
-      <c r="M73" s="2">
+      <c r="N73" s="2">
         <f t="shared" si="28"/>
         <v>50</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:16">
+    <row r="74" s="2" customFormat="1" spans="1:17">
       <c r="A74" s="2">
         <v>100510</v>
       </c>
@@ -4625,44 +4566,43 @@
         <v>100511</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G74" s="8"/>
       <c r="H74" s="2" t="str">
-        <f>L74&amp;"|"&amp;M74&amp;";"&amp;O74&amp;"|"&amp;P74</f>
+        <f>M74&amp;"|"&amp;N74&amp;";"&amp;P74&amp;"|"&amp;Q74</f>
         <v>1011|55;100501|5</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" si="27"/>
         <v>10000</v>
       </c>
-      <c r="K74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L74" s="2">
+      <c r="L74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M74" s="2">
         <v>1011</v>
       </c>
-      <c r="M74" s="2">
+      <c r="N74" s="2">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
-      <c r="N74" s="2" t="str">
+      <c r="O74" s="2" t="str">
         <f>D65</f>
         <v>Leather Armour1</v>
       </c>
-      <c r="O74" s="2">
+      <c r="P74" s="2">
         <f>A65</f>
         <v>100501</v>
       </c>
-      <c r="P74" s="2">
+      <c r="Q74" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:13">
+    <row r="75" s="2" customFormat="1" spans="1:14">
       <c r="A75" s="2">
         <v>100511</v>
       </c>
@@ -4674,33 +4614,32 @@
         <v>100512</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G75" s="8"/>
       <c r="H75" s="2" t="str">
-        <f t="shared" ref="H75:H77" si="30">L75&amp;"|"&amp;M75</f>
+        <f t="shared" ref="H75:H77" si="30">M75&amp;"|"&amp;N75</f>
         <v>1011|60</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" si="27"/>
         <v>11000</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L75" s="2">
+      <c r="L75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M75" s="2">
         <v>1011</v>
       </c>
-      <c r="M75" s="2">
+      <c r="N75" s="2">
         <f t="shared" si="28"/>
         <v>60</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" spans="1:13">
+    <row r="76" s="2" customFormat="1" spans="1:14">
       <c r="A76" s="2">
         <v>100512</v>
       </c>
@@ -4712,12 +4651,11 @@
         <v>100513</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G76" s="8"/>
       <c r="H76" s="2" t="str">
         <f t="shared" si="30"/>
@@ -4727,18 +4665,18 @@
         <f t="shared" si="27"/>
         <v>12000</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L76" s="2">
+      <c r="L76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M76" s="2">
         <v>1011</v>
       </c>
-      <c r="M76" s="2">
+      <c r="N76" s="2">
         <f t="shared" si="28"/>
         <v>65</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" spans="1:13">
+    <row r="77" s="2" customFormat="1" spans="1:14">
       <c r="A77" s="2">
         <v>100513</v>
       </c>
@@ -4750,12 +4688,11 @@
         <v>100514</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G77" s="8"/>
       <c r="H77" s="2" t="str">
         <f t="shared" si="30"/>
@@ -4765,18 +4702,18 @@
         <f t="shared" si="27"/>
         <v>13000</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L77" s="2">
+      <c r="L77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M77" s="2">
         <v>1011</v>
       </c>
-      <c r="M77" s="2">
+      <c r="N77" s="2">
         <f t="shared" si="28"/>
         <v>70</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:16">
+    <row r="78" s="2" customFormat="1" spans="1:17">
       <c r="A78" s="2">
         <v>100514</v>
       </c>
@@ -4788,40 +4725,39 @@
         <v>100515</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G78" s="8"/>
       <c r="H78" s="2" t="str">
-        <f>L78&amp;"|"&amp;M78&amp;";"&amp;O78&amp;"|"&amp;P78</f>
+        <f>M78&amp;"|"&amp;N78&amp;";"&amp;P78&amp;"|"&amp;Q78</f>
         <v>1011|75;100501|8</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="27"/>
         <v>14000</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L78" s="2">
+      <c r="L78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M78" s="2">
         <v>1011</v>
       </c>
-      <c r="M78" s="2">
+      <c r="N78" s="2">
         <f t="shared" si="28"/>
         <v>75</v>
       </c>
-      <c r="N78" s="2" t="str">
+      <c r="O78" s="2" t="str">
         <f>D65</f>
         <v>Leather Armour1</v>
       </c>
-      <c r="O78" s="2">
+      <c r="P78" s="2">
         <f>A65</f>
         <v>100501</v>
       </c>
-      <c r="P78" s="2">
+      <c r="Q78" s="2">
         <v>8</v>
       </c>
     </row>
@@ -4832,17 +4768,15 @@
       <c r="B79" s="2">
         <v>15</v>
       </c>
-      <c r="C79" s="2"/>
       <c r="D79" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="2"/>
+        <v>85</v>
+      </c>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:13">
+    <row r="80" s="3" customFormat="1" spans="1:14">
       <c r="A80" s="3">
         <v>100601</v>
       </c>
@@ -4854,31 +4788,30 @@
         <v>100602</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G80" s="10"/>
       <c r="H80" s="3" t="str">
-        <f t="shared" ref="H80:H83" si="31">L80&amp;"|"&amp;M80</f>
+        <f t="shared" ref="H80:H83" si="31">M80&amp;"|"&amp;N80</f>
         <v>1036|10</v>
       </c>
       <c r="I80" s="3">
         <v>1000</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L80" s="3">
+      <c r="L80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M80" s="3">
         <v>1036</v>
       </c>
-      <c r="M80" s="3">
+      <c r="N80" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" spans="1:13">
+    <row r="81" s="3" customFormat="1" spans="1:14">
       <c r="A81" s="3">
         <v>100602</v>
       </c>
@@ -4890,12 +4823,11 @@
         <v>100603</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F81" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G81" s="10"/>
       <c r="H81" s="3" t="str">
         <f t="shared" si="31"/>
@@ -4905,18 +4837,18 @@
         <f t="shared" ref="I81:I93" si="33">I80+1000</f>
         <v>2000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M81" s="3">
         <v>1036</v>
       </c>
-      <c r="M81" s="3">
-        <f t="shared" ref="M81:M93" si="34">M80+5</f>
+      <c r="N81" s="3">
+        <f t="shared" ref="N81:N93" si="34">N80+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1" spans="1:13">
+    <row r="82" s="3" customFormat="1" spans="1:14">
       <c r="A82" s="3">
         <v>100603</v>
       </c>
@@ -4928,12 +4860,11 @@
         <v>100604</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G82" s="10"/>
       <c r="H82" s="3" t="str">
         <f t="shared" si="31"/>
@@ -4943,18 +4874,18 @@
         <f t="shared" si="33"/>
         <v>3000</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L82" s="3">
+      <c r="L82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M82" s="3">
         <v>1036</v>
       </c>
-      <c r="M82" s="3">
+      <c r="N82" s="3">
         <f t="shared" si="34"/>
         <v>20</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" spans="1:13">
+    <row r="83" s="3" customFormat="1" spans="1:14">
       <c r="A83" s="3">
         <v>100604</v>
       </c>
@@ -4966,12 +4897,11 @@
         <v>100605</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F83" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G83" s="10"/>
       <c r="H83" s="3" t="str">
         <f t="shared" si="31"/>
@@ -4981,18 +4911,18 @@
         <f t="shared" si="33"/>
         <v>4000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M83" s="3">
         <v>1036</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <f t="shared" si="34"/>
         <v>25</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" spans="1:16">
+    <row r="84" s="3" customFormat="1" spans="1:17">
       <c r="A84" s="3">
         <v>100605</v>
       </c>
@@ -5004,44 +4934,43 @@
         <v>100606</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G84" s="10"/>
       <c r="H84" s="3" t="str">
-        <f>L84&amp;"|"&amp;M84&amp;";"&amp;O84&amp;"|"&amp;P84</f>
+        <f>M84&amp;"|"&amp;N84&amp;";"&amp;P84&amp;"|"&amp;Q84</f>
         <v>1036|30;100601|2</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="33"/>
         <v>5000</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L84" s="3">
+      <c r="L84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M84" s="3">
         <v>1036</v>
       </c>
-      <c r="M84" s="3">
+      <c r="N84" s="3">
         <f t="shared" si="34"/>
         <v>30</v>
       </c>
-      <c r="N84" s="3" t="str">
+      <c r="O84" s="3" t="str">
         <f>D80</f>
         <v>Cape1</v>
       </c>
-      <c r="O84" s="3">
+      <c r="P84" s="3">
         <f>A80</f>
         <v>100601</v>
       </c>
-      <c r="P84" s="3">
+      <c r="Q84" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" spans="1:13">
+    <row r="85" s="3" customFormat="1" spans="1:14">
       <c r="A85" s="3">
         <v>100606</v>
       </c>
@@ -5053,33 +4982,32 @@
         <v>100607</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F85" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G85" s="10"/>
       <c r="H85" s="3" t="str">
-        <f t="shared" ref="H85:H88" si="35">L85&amp;"|"&amp;M85</f>
+        <f t="shared" ref="H85:H88" si="35">M85&amp;"|"&amp;N85</f>
         <v>1036|35</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="33"/>
         <v>6000</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L85" s="3">
+      <c r="L85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M85" s="3">
         <v>1036</v>
       </c>
-      <c r="M85" s="3">
+      <c r="N85" s="3">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1" spans="1:13">
+    <row r="86" s="3" customFormat="1" spans="1:14">
       <c r="A86" s="3">
         <v>100607</v>
       </c>
@@ -5091,12 +5019,11 @@
         <v>100608</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F86" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G86" s="10"/>
       <c r="H86" s="3" t="str">
         <f t="shared" si="35"/>
@@ -5106,18 +5033,18 @@
         <f t="shared" si="33"/>
         <v>7000</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L86" s="3">
+      <c r="L86" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M86" s="3">
         <v>1036</v>
       </c>
-      <c r="M86" s="3">
+      <c r="N86" s="3">
         <f t="shared" si="34"/>
         <v>40</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1" spans="1:13">
+    <row r="87" s="3" customFormat="1" spans="1:14">
       <c r="A87" s="3">
         <v>100608</v>
       </c>
@@ -5129,12 +5056,11 @@
         <v>100609</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F87" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G87" s="10"/>
       <c r="H87" s="3" t="str">
         <f t="shared" si="35"/>
@@ -5144,18 +5070,18 @@
         <f t="shared" si="33"/>
         <v>8000</v>
       </c>
-      <c r="K87" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L87" s="3">
+      <c r="L87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M87" s="3">
         <v>1036</v>
       </c>
-      <c r="M87" s="3">
+      <c r="N87" s="3">
         <f t="shared" si="34"/>
         <v>45</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="1" spans="1:13">
+    <row r="88" s="3" customFormat="1" spans="1:14">
       <c r="A88" s="3">
         <v>100609</v>
       </c>
@@ -5167,12 +5093,11 @@
         <v>100610</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F88" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G88" s="10"/>
       <c r="H88" s="3" t="str">
         <f t="shared" si="35"/>
@@ -5182,18 +5107,18 @@
         <f t="shared" si="33"/>
         <v>9000</v>
       </c>
-      <c r="K88" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L88" s="3">
+      <c r="L88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M88" s="3">
         <v>1036</v>
       </c>
-      <c r="M88" s="3">
+      <c r="N88" s="3">
         <f t="shared" si="34"/>
         <v>50</v>
       </c>
     </row>
-    <row r="89" s="3" customFormat="1" spans="1:16">
+    <row r="89" s="3" customFormat="1" spans="1:17">
       <c r="A89" s="3">
         <v>100610</v>
       </c>
@@ -5205,44 +5130,43 @@
         <v>100611</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G89" s="10"/>
       <c r="H89" s="3" t="str">
-        <f>L89&amp;"|"&amp;M89&amp;";"&amp;O89&amp;"|"&amp;P89</f>
+        <f>M89&amp;"|"&amp;N89&amp;";"&amp;P89&amp;"|"&amp;Q89</f>
         <v>1011|55;100601|5</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="33"/>
         <v>10000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M89" s="3">
         <v>1011</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <f t="shared" si="34"/>
         <v>55</v>
       </c>
-      <c r="N89" s="3" t="str">
+      <c r="O89" s="3" t="str">
         <f>D80</f>
         <v>Cape1</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <f>A80</f>
         <v>100601</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="90" s="3" customFormat="1" spans="1:13">
+    <row r="90" s="3" customFormat="1" spans="1:14">
       <c r="A90" s="3">
         <v>100611</v>
       </c>
@@ -5254,33 +5178,32 @@
         <v>100612</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F90" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G90" s="10"/>
       <c r="H90" s="3" t="str">
-        <f t="shared" ref="H90:H92" si="36">L90&amp;"|"&amp;M90</f>
+        <f t="shared" ref="H90:H92" si="36">M90&amp;"|"&amp;N90</f>
         <v>1011|60</v>
       </c>
       <c r="I90" s="3">
         <f t="shared" si="33"/>
         <v>11000</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L90" s="3">
+      <c r="L90" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M90" s="3">
         <v>1011</v>
       </c>
-      <c r="M90" s="3">
+      <c r="N90" s="3">
         <f t="shared" si="34"/>
         <v>60</v>
       </c>
     </row>
-    <row r="91" s="3" customFormat="1" spans="1:13">
+    <row r="91" s="3" customFormat="1" spans="1:14">
       <c r="A91" s="3">
         <v>100612</v>
       </c>
@@ -5292,12 +5215,11 @@
         <v>100613</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F91" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G91" s="10"/>
       <c r="H91" s="3" t="str">
         <f t="shared" si="36"/>
@@ -5307,18 +5229,18 @@
         <f t="shared" si="33"/>
         <v>12000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M91" s="3">
         <v>1011</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <f t="shared" si="34"/>
         <v>65</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" spans="1:13">
+    <row r="92" s="3" customFormat="1" spans="1:14">
       <c r="A92" s="3">
         <v>100613</v>
       </c>
@@ -5330,12 +5252,11 @@
         <v>100614</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F92" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G92" s="10"/>
       <c r="H92" s="3" t="str">
         <f t="shared" si="36"/>
@@ -5345,18 +5266,18 @@
         <f t="shared" si="33"/>
         <v>13000</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L92" s="3">
+      <c r="L92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M92" s="3">
         <v>1011</v>
       </c>
-      <c r="M92" s="3">
+      <c r="N92" s="3">
         <f t="shared" si="34"/>
         <v>70</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" spans="1:16">
+    <row r="93" s="3" customFormat="1" spans="1:17">
       <c r="A93" s="3">
         <v>100614</v>
       </c>
@@ -5368,40 +5289,39 @@
         <v>100615</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G93" s="10"/>
       <c r="H93" s="3" t="str">
-        <f>L93&amp;"|"&amp;M93&amp;";"&amp;O93&amp;"|"&amp;P93</f>
+        <f>M93&amp;"|"&amp;N93&amp;";"&amp;P93&amp;"|"&amp;Q93</f>
         <v>1011|75;100601|8</v>
       </c>
       <c r="I93" s="3">
         <f t="shared" si="33"/>
         <v>14000</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L93" s="3">
+      <c r="L93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M93" s="3">
         <v>1011</v>
       </c>
-      <c r="M93" s="3">
+      <c r="N93" s="3">
         <f t="shared" si="34"/>
         <v>75</v>
       </c>
-      <c r="N93" s="3" t="str">
+      <c r="O93" s="3" t="str">
         <f>D80</f>
         <v>Cape1</v>
       </c>
-      <c r="O93" s="3">
+      <c r="P93" s="3">
         <f>A80</f>
         <v>100601</v>
       </c>
-      <c r="P93" s="3">
+      <c r="Q93" s="3">
         <v>8</v>
       </c>
     </row>
@@ -5412,17 +5332,15 @@
       <c r="B94" s="3">
         <v>15</v>
       </c>
-      <c r="C94" s="3"/>
       <c r="D94" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="3"/>
+        <v>85</v>
+      </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:13">
+    <row r="95" s="2" customFormat="1" spans="1:14">
       <c r="A95" s="2">
         <v>100701</v>
       </c>
@@ -5434,32 +5352,30 @@
         <v>100702</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G95" s="8"/>
       <c r="H95" s="2" t="str">
-        <f t="shared" ref="H95:H98" si="37">L95&amp;"|"&amp;M95</f>
+        <f t="shared" ref="H95:H98" si="37">M95&amp;"|"&amp;N95</f>
         <v>1005|10</v>
       </c>
       <c r="I95" s="2">
         <v>1000</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L95" s="2">
+      <c r="L95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M95" s="2">
         <v>1005</v>
       </c>
-      <c r="M95" s="2">
+      <c r="N95" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" spans="1:13">
+    <row r="96" s="2" customFormat="1" spans="1:14">
       <c r="A96" s="2">
         <v>100702</v>
       </c>
@@ -5471,12 +5387,11 @@
         <v>100703</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G96" s="8"/>
       <c r="H96" s="2" t="str">
         <f t="shared" si="37"/>
@@ -5486,18 +5401,18 @@
         <f t="shared" ref="I96:I108" si="39">I95+1000</f>
         <v>2000</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L96" s="2">
+      <c r="L96" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M96" s="2">
         <v>1005</v>
       </c>
-      <c r="M96" s="2">
-        <f t="shared" ref="M96:M108" si="40">M95+5</f>
+      <c r="N96" s="2">
+        <f t="shared" ref="N96:N108" si="40">N95+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" spans="1:13">
+    <row r="97" s="2" customFormat="1" spans="1:14">
       <c r="A97" s="2">
         <v>100703</v>
       </c>
@@ -5509,12 +5424,11 @@
         <v>100704</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G97" s="8"/>
       <c r="H97" s="2" t="str">
         <f t="shared" si="37"/>
@@ -5524,18 +5438,18 @@
         <f t="shared" si="39"/>
         <v>3000</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L97" s="2">
+      <c r="L97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M97" s="2">
         <v>1005</v>
       </c>
-      <c r="M97" s="2">
+      <c r="N97" s="2">
         <f t="shared" si="40"/>
         <v>20</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" spans="1:13">
+    <row r="98" s="2" customFormat="1" spans="1:14">
       <c r="A98" s="2">
         <v>100704</v>
       </c>
@@ -5547,12 +5461,11 @@
         <v>100705</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G98" s="8"/>
       <c r="H98" s="2" t="str">
         <f t="shared" si="37"/>
@@ -5562,18 +5475,18 @@
         <f t="shared" si="39"/>
         <v>4000</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L98" s="2">
+      <c r="L98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M98" s="2">
         <v>1005</v>
       </c>
-      <c r="M98" s="2">
+      <c r="N98" s="2">
         <f t="shared" si="40"/>
         <v>25</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" spans="1:16">
+    <row r="99" s="2" customFormat="1" spans="1:17">
       <c r="A99" s="2">
         <v>100705</v>
       </c>
@@ -5585,44 +5498,43 @@
         <v>100706</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G99" s="8"/>
       <c r="H99" s="2" t="str">
-        <f>L99&amp;"|"&amp;M99&amp;";"&amp;O99&amp;"|"&amp;P99</f>
+        <f>M99&amp;"|"&amp;N99&amp;";"&amp;P99&amp;"|"&amp;Q99</f>
         <v>1005|30;100701|2</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" si="39"/>
         <v>5000</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L99" s="2">
+      <c r="L99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M99" s="2">
         <v>1005</v>
       </c>
-      <c r="M99" s="2">
+      <c r="N99" s="2">
         <f t="shared" si="40"/>
         <v>30</v>
       </c>
-      <c r="N99" s="2" t="str">
+      <c r="O99" s="2" t="str">
         <f>D95</f>
         <v>Circlet1</v>
       </c>
-      <c r="O99" s="2">
+      <c r="P99" s="2">
         <f>A95</f>
         <v>100701</v>
       </c>
-      <c r="P99" s="2">
+      <c r="Q99" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:13">
+    <row r="100" s="2" customFormat="1" spans="1:14">
       <c r="A100" s="2">
         <v>100706</v>
       </c>
@@ -5634,33 +5546,32 @@
         <v>100707</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G100" s="8"/>
       <c r="H100" s="2" t="str">
-        <f t="shared" ref="H100:H103" si="41">L100&amp;"|"&amp;M100</f>
+        <f t="shared" ref="H100:H103" si="41">M100&amp;"|"&amp;N100</f>
         <v>1005|35</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="39"/>
         <v>6000</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L100" s="2">
+      <c r="L100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M100" s="2">
         <v>1005</v>
       </c>
-      <c r="M100" s="2">
+      <c r="N100" s="2">
         <f t="shared" si="40"/>
         <v>35</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" spans="1:13">
+    <row r="101" s="2" customFormat="1" spans="1:14">
       <c r="A101" s="2">
         <v>100707</v>
       </c>
@@ -5672,12 +5583,11 @@
         <v>100708</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G101" s="8"/>
       <c r="H101" s="2" t="str">
         <f t="shared" si="41"/>
@@ -5687,18 +5597,18 @@
         <f t="shared" si="39"/>
         <v>7000</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L101" s="2">
+      <c r="L101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M101" s="2">
         <v>1005</v>
       </c>
-      <c r="M101" s="2">
+      <c r="N101" s="2">
         <f t="shared" si="40"/>
         <v>40</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" spans="1:13">
+    <row r="102" s="2" customFormat="1" spans="1:14">
       <c r="A102" s="2">
         <v>100708</v>
       </c>
@@ -5710,12 +5620,11 @@
         <v>100709</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G102" s="8"/>
       <c r="H102" s="2" t="str">
         <f t="shared" si="41"/>
@@ -5725,18 +5634,18 @@
         <f t="shared" si="39"/>
         <v>8000</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L102" s="2">
+      <c r="L102" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M102" s="2">
         <v>1005</v>
       </c>
-      <c r="M102" s="2">
+      <c r="N102" s="2">
         <f t="shared" si="40"/>
         <v>45</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" spans="1:13">
+    <row r="103" s="2" customFormat="1" spans="1:14">
       <c r="A103" s="2">
         <v>100709</v>
       </c>
@@ -5748,12 +5657,11 @@
         <v>100710</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G103" s="8"/>
       <c r="H103" s="2" t="str">
         <f t="shared" si="41"/>
@@ -5763,18 +5671,18 @@
         <f t="shared" si="39"/>
         <v>9000</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L103" s="2">
+      <c r="L103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M103" s="2">
         <v>1005</v>
       </c>
-      <c r="M103" s="2">
+      <c r="N103" s="2">
         <f t="shared" si="40"/>
         <v>50</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" spans="1:16">
+    <row r="104" s="2" customFormat="1" spans="1:17">
       <c r="A104" s="2">
         <v>100710</v>
       </c>
@@ -5786,44 +5694,43 @@
         <v>100711</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F104" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G104" s="8"/>
       <c r="H104" s="2" t="str">
-        <f>L104&amp;"|"&amp;M104&amp;";"&amp;O104&amp;"|"&amp;P104</f>
+        <f>M104&amp;"|"&amp;N104&amp;";"&amp;P104&amp;"|"&amp;Q104</f>
         <v>1005|55;100701|5</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" si="39"/>
         <v>10000</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L104" s="2">
+      <c r="L104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M104" s="2">
         <v>1005</v>
       </c>
-      <c r="M104" s="2">
+      <c r="N104" s="2">
         <f t="shared" si="40"/>
         <v>55</v>
       </c>
-      <c r="N104" s="2" t="str">
+      <c r="O104" s="2" t="str">
         <f>D95</f>
         <v>Circlet1</v>
       </c>
-      <c r="O104" s="2">
+      <c r="P104" s="2">
         <f>A95</f>
         <v>100701</v>
       </c>
-      <c r="P104" s="2">
+      <c r="Q104" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:13">
+    <row r="105" s="2" customFormat="1" spans="1:14">
       <c r="A105" s="2">
         <v>100711</v>
       </c>
@@ -5835,33 +5742,32 @@
         <v>100712</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F105" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G105" s="8"/>
       <c r="H105" s="2" t="str">
-        <f t="shared" ref="H105:H107" si="42">L105&amp;"|"&amp;M105</f>
+        <f t="shared" ref="H105:H107" si="42">M105&amp;"|"&amp;N105</f>
         <v>1005|60</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" si="39"/>
         <v>11000</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L105" s="2">
+      <c r="L105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M105" s="2">
         <v>1005</v>
       </c>
-      <c r="M105" s="2">
+      <c r="N105" s="2">
         <f t="shared" si="40"/>
         <v>60</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" spans="1:13">
+    <row r="106" s="2" customFormat="1" spans="1:14">
       <c r="A106" s="2">
         <v>100712</v>
       </c>
@@ -5873,12 +5779,11 @@
         <v>100713</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F106" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G106" s="8"/>
       <c r="H106" s="2" t="str">
         <f t="shared" si="42"/>
@@ -5888,18 +5793,18 @@
         <f t="shared" si="39"/>
         <v>12000</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L106" s="2">
+      <c r="L106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M106" s="2">
         <v>1005</v>
       </c>
-      <c r="M106" s="2">
+      <c r="N106" s="2">
         <f t="shared" si="40"/>
         <v>65</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" spans="1:13">
+    <row r="107" s="2" customFormat="1" spans="1:14">
       <c r="A107" s="2">
         <v>100713</v>
       </c>
@@ -5911,12 +5816,11 @@
         <v>100714</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G107" s="8"/>
       <c r="H107" s="2" t="str">
         <f t="shared" si="42"/>
@@ -5926,18 +5830,18 @@
         <f t="shared" si="39"/>
         <v>13000</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L107" s="2">
+      <c r="L107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M107" s="2">
         <v>1005</v>
       </c>
-      <c r="M107" s="2">
+      <c r="N107" s="2">
         <f t="shared" si="40"/>
         <v>70</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" spans="1:16">
+    <row r="108" s="2" customFormat="1" spans="1:17">
       <c r="A108" s="2">
         <v>100714</v>
       </c>
@@ -5949,40 +5853,39 @@
         <v>100715</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G108" s="8"/>
       <c r="H108" s="2" t="str">
-        <f>L108&amp;"|"&amp;M108&amp;";"&amp;O108&amp;"|"&amp;P108</f>
+        <f>M108&amp;"|"&amp;N108&amp;";"&amp;P108&amp;"|"&amp;Q108</f>
         <v>1005|75;100701|8</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="39"/>
         <v>14000</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L108" s="2">
+      <c r="L108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M108" s="2">
         <v>1005</v>
       </c>
-      <c r="M108" s="2">
+      <c r="N108" s="2">
         <f t="shared" si="40"/>
         <v>75</v>
       </c>
-      <c r="N108" s="2" t="str">
+      <c r="O108" s="2" t="str">
         <f>D95</f>
         <v>Circlet1</v>
       </c>
-      <c r="O108" s="2">
+      <c r="P108" s="2">
         <f>A95</f>
         <v>100701</v>
       </c>
-      <c r="P108" s="2">
+      <c r="Q108" s="2">
         <v>8</v>
       </c>
     </row>
@@ -5993,17 +5896,15 @@
       <c r="B109" s="2">
         <v>15</v>
       </c>
-      <c r="C109" s="2"/>
       <c r="D109" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F109" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" s="3" customFormat="1" spans="1:13">
+    <row r="110" s="3" customFormat="1" spans="1:14">
       <c r="A110" s="3">
         <v>100801</v>
       </c>
@@ -6015,31 +5916,30 @@
         <v>100802</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F110" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G110" s="10"/>
       <c r="H110" s="3" t="str">
-        <f t="shared" ref="H110:H113" si="43">L110&amp;"|"&amp;M110</f>
+        <f t="shared" ref="H110:H113" si="43">M110&amp;"|"&amp;N110</f>
         <v>1046|10</v>
       </c>
       <c r="I110" s="3">
         <v>1000</v>
       </c>
-      <c r="K110" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L110" s="3">
+      <c r="L110" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M110" s="3">
         <v>1046</v>
       </c>
-      <c r="M110" s="3">
+      <c r="N110" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="111" s="3" customFormat="1" spans="1:13">
+    <row r="111" s="3" customFormat="1" spans="1:14">
       <c r="A111" s="3">
         <v>100802</v>
       </c>
@@ -6051,12 +5951,11 @@
         <v>100803</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G111" s="10"/>
       <c r="H111" s="3" t="str">
         <f t="shared" si="43"/>
@@ -6066,18 +5965,18 @@
         <f t="shared" ref="I111:I123" si="45">I110+1000</f>
         <v>2000</v>
       </c>
-      <c r="K111" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L111" s="3">
+      <c r="L111" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M111" s="3">
         <v>1046</v>
       </c>
-      <c r="M111" s="3">
-        <f t="shared" ref="M111:M123" si="46">M110+5</f>
+      <c r="N111" s="3">
+        <f t="shared" ref="N111:N123" si="46">N110+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="112" s="3" customFormat="1" spans="1:13">
+    <row r="112" s="3" customFormat="1" spans="1:14">
       <c r="A112" s="3">
         <v>100803</v>
       </c>
@@ -6089,12 +5988,11 @@
         <v>100804</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F112" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G112" s="10"/>
       <c r="H112" s="3" t="str">
         <f t="shared" si="43"/>
@@ -6104,18 +6002,18 @@
         <f t="shared" si="45"/>
         <v>3000</v>
       </c>
-      <c r="K112" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L112" s="3">
+      <c r="L112" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M112" s="3">
         <v>1046</v>
       </c>
-      <c r="M112" s="3">
+      <c r="N112" s="3">
         <f t="shared" si="46"/>
         <v>20</v>
       </c>
     </row>
-    <row r="113" s="3" customFormat="1" spans="1:13">
+    <row r="113" s="3" customFormat="1" spans="1:14">
       <c r="A113" s="3">
         <v>100804</v>
       </c>
@@ -6127,12 +6025,11 @@
         <v>100805</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F113" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G113" s="10"/>
       <c r="H113" s="3" t="str">
         <f t="shared" si="43"/>
@@ -6142,18 +6039,18 @@
         <f t="shared" si="45"/>
         <v>4000</v>
       </c>
-      <c r="K113" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L113" s="3">
+      <c r="L113" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M113" s="3">
         <v>1046</v>
       </c>
-      <c r="M113" s="3">
+      <c r="N113" s="3">
         <f t="shared" si="46"/>
         <v>25</v>
       </c>
     </row>
-    <row r="114" s="3" customFormat="1" spans="1:16">
+    <row r="114" s="3" customFormat="1" spans="1:17">
       <c r="A114" s="3">
         <v>100805</v>
       </c>
@@ -6165,44 +6062,43 @@
         <v>100806</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F114" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G114" s="10"/>
       <c r="H114" s="3" t="str">
-        <f>L114&amp;"|"&amp;M114&amp;";"&amp;O114&amp;"|"&amp;P114</f>
+        <f>M114&amp;"|"&amp;N114&amp;";"&amp;P114&amp;"|"&amp;Q114</f>
         <v>1046|30;100801|2</v>
       </c>
       <c r="I114" s="3">
         <f t="shared" si="45"/>
         <v>5000</v>
       </c>
-      <c r="K114" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L114" s="3">
+      <c r="L114" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M114" s="3">
         <v>1046</v>
       </c>
-      <c r="M114" s="3">
+      <c r="N114" s="3">
         <f t="shared" si="46"/>
         <v>30</v>
       </c>
-      <c r="N114" s="3" t="str">
+      <c r="O114" s="3" t="str">
         <f>D110</f>
         <v>Ring1</v>
       </c>
-      <c r="O114" s="3">
+      <c r="P114" s="3">
         <f>A110</f>
         <v>100801</v>
       </c>
-      <c r="P114" s="3">
+      <c r="Q114" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="115" s="3" customFormat="1" spans="1:13">
+    <row r="115" s="3" customFormat="1" spans="1:14">
       <c r="A115" s="3">
         <v>100806</v>
       </c>
@@ -6214,33 +6110,32 @@
         <v>100807</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F115" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G115" s="10"/>
       <c r="H115" s="3" t="str">
-        <f t="shared" ref="H115:H118" si="47">L115&amp;"|"&amp;M115</f>
+        <f t="shared" ref="H115:H118" si="47">M115&amp;"|"&amp;N115</f>
         <v>1046|35</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="45"/>
         <v>6000</v>
       </c>
-      <c r="K115" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L115" s="3">
+      <c r="L115" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M115" s="3">
         <v>1046</v>
       </c>
-      <c r="M115" s="3">
+      <c r="N115" s="3">
         <f t="shared" si="46"/>
         <v>35</v>
       </c>
     </row>
-    <row r="116" s="3" customFormat="1" spans="1:13">
+    <row r="116" s="3" customFormat="1" spans="1:14">
       <c r="A116" s="3">
         <v>100807</v>
       </c>
@@ -6252,12 +6147,11 @@
         <v>100808</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F116" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G116" s="10"/>
       <c r="H116" s="3" t="str">
         <f t="shared" si="47"/>
@@ -6267,18 +6161,18 @@
         <f t="shared" si="45"/>
         <v>7000</v>
       </c>
-      <c r="K116" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L116" s="3">
+      <c r="L116" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M116" s="3">
         <v>1046</v>
       </c>
-      <c r="M116" s="3">
+      <c r="N116" s="3">
         <f t="shared" si="46"/>
         <v>40</v>
       </c>
     </row>
-    <row r="117" s="3" customFormat="1" spans="1:13">
+    <row r="117" s="3" customFormat="1" spans="1:14">
       <c r="A117" s="3">
         <v>100808</v>
       </c>
@@ -6290,12 +6184,11 @@
         <v>100809</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F117" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G117" s="10"/>
       <c r="H117" s="3" t="str">
         <f t="shared" si="47"/>
@@ -6305,18 +6198,18 @@
         <f t="shared" si="45"/>
         <v>8000</v>
       </c>
-      <c r="K117" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L117" s="3">
+      <c r="L117" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M117" s="3">
         <v>1046</v>
       </c>
-      <c r="M117" s="3">
+      <c r="N117" s="3">
         <f t="shared" si="46"/>
         <v>45</v>
       </c>
     </row>
-    <row r="118" s="3" customFormat="1" spans="1:13">
+    <row r="118" s="3" customFormat="1" spans="1:14">
       <c r="A118" s="3">
         <v>100809</v>
       </c>
@@ -6328,12 +6221,11 @@
         <v>100810</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F118" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G118" s="10"/>
       <c r="H118" s="3" t="str">
         <f t="shared" si="47"/>
@@ -6343,18 +6235,18 @@
         <f t="shared" si="45"/>
         <v>9000</v>
       </c>
-      <c r="K118" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L118" s="3">
+      <c r="L118" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M118" s="3">
         <v>1046</v>
       </c>
-      <c r="M118" s="3">
+      <c r="N118" s="3">
         <f t="shared" si="46"/>
         <v>50</v>
       </c>
     </row>
-    <row r="119" s="3" customFormat="1" spans="1:16">
+    <row r="119" s="3" customFormat="1" spans="1:17">
       <c r="A119" s="3">
         <v>100810</v>
       </c>
@@ -6366,44 +6258,43 @@
         <v>100811</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F119" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G119" s="10"/>
       <c r="H119" s="3" t="str">
-        <f>L119&amp;"|"&amp;M119&amp;";"&amp;O119&amp;"|"&amp;P119</f>
+        <f>M119&amp;"|"&amp;N119&amp;";"&amp;P119&amp;"|"&amp;Q119</f>
         <v>1046|55;100801|5</v>
       </c>
       <c r="I119" s="3">
         <f t="shared" si="45"/>
         <v>10000</v>
       </c>
-      <c r="K119" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L119" s="3">
+      <c r="L119" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M119" s="3">
         <v>1046</v>
       </c>
-      <c r="M119" s="3">
+      <c r="N119" s="3">
         <f t="shared" si="46"/>
         <v>55</v>
       </c>
-      <c r="N119" s="3" t="str">
+      <c r="O119" s="3" t="str">
         <f>D110</f>
         <v>Ring1</v>
       </c>
-      <c r="O119" s="3">
+      <c r="P119" s="3">
         <f>A110</f>
         <v>100801</v>
       </c>
-      <c r="P119" s="3">
+      <c r="Q119" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="120" s="3" customFormat="1" spans="1:13">
+    <row r="120" s="3" customFormat="1" spans="1:14">
       <c r="A120" s="3">
         <v>100811</v>
       </c>
@@ -6415,33 +6306,32 @@
         <v>100812</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F120" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G120" s="10"/>
       <c r="H120" s="3" t="str">
-        <f t="shared" ref="H120:H122" si="48">L120&amp;"|"&amp;M120</f>
+        <f t="shared" ref="H120:H122" si="48">M120&amp;"|"&amp;N120</f>
         <v>1046|60</v>
       </c>
       <c r="I120" s="3">
         <f t="shared" si="45"/>
         <v>11000</v>
       </c>
-      <c r="K120" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L120" s="3">
+      <c r="L120" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M120" s="3">
         <v>1046</v>
       </c>
-      <c r="M120" s="3">
+      <c r="N120" s="3">
         <f t="shared" si="46"/>
         <v>60</v>
       </c>
     </row>
-    <row r="121" s="3" customFormat="1" spans="1:13">
+    <row r="121" s="3" customFormat="1" spans="1:14">
       <c r="A121" s="3">
         <v>100812</v>
       </c>
@@ -6453,12 +6343,11 @@
         <v>100813</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F121" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G121" s="10"/>
       <c r="H121" s="3" t="str">
         <f t="shared" si="48"/>
@@ -6468,18 +6357,18 @@
         <f t="shared" si="45"/>
         <v>12000</v>
       </c>
-      <c r="K121" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L121" s="3">
+      <c r="L121" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M121" s="3">
         <v>1046</v>
       </c>
-      <c r="M121" s="3">
+      <c r="N121" s="3">
         <f t="shared" si="46"/>
         <v>65</v>
       </c>
     </row>
-    <row r="122" s="3" customFormat="1" spans="1:13">
+    <row r="122" s="3" customFormat="1" spans="1:14">
       <c r="A122" s="3">
         <v>100813</v>
       </c>
@@ -6491,12 +6380,11 @@
         <v>100814</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F122" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G122" s="10"/>
       <c r="H122" s="3" t="str">
         <f t="shared" si="48"/>
@@ -6506,18 +6394,18 @@
         <f t="shared" si="45"/>
         <v>13000</v>
       </c>
-      <c r="K122" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L122" s="3">
+      <c r="L122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M122" s="3">
         <v>1046</v>
       </c>
-      <c r="M122" s="3">
+      <c r="N122" s="3">
         <f t="shared" si="46"/>
         <v>70</v>
       </c>
     </row>
-    <row r="123" s="3" customFormat="1" spans="1:16">
+    <row r="123" s="3" customFormat="1" spans="1:17">
       <c r="A123" s="3">
         <v>100814</v>
       </c>
@@ -6529,40 +6417,39 @@
         <v>100815</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F123" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G123" s="10"/>
       <c r="H123" s="3" t="str">
-        <f>L123&amp;"|"&amp;M123&amp;";"&amp;O123&amp;"|"&amp;P123</f>
+        <f>M123&amp;"|"&amp;N123&amp;";"&amp;P123&amp;"|"&amp;Q123</f>
         <v>1046|75;100801|8</v>
       </c>
       <c r="I123" s="3">
         <f t="shared" si="45"/>
         <v>14000</v>
       </c>
-      <c r="K123" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L123" s="3">
+      <c r="L123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M123" s="3">
         <v>1046</v>
       </c>
-      <c r="M123" s="3">
+      <c r="N123" s="3">
         <f t="shared" si="46"/>
         <v>75</v>
       </c>
-      <c r="N123" s="3" t="str">
+      <c r="O123" s="3" t="str">
         <f>D110</f>
         <v>Ring1</v>
       </c>
-      <c r="O123" s="3">
+      <c r="P123" s="3">
         <f>A110</f>
         <v>100801</v>
       </c>
-      <c r="P123" s="3">
+      <c r="Q123" s="3">
         <v>8</v>
       </c>
     </row>
@@ -6573,17 +6460,15 @@
       <c r="B124" s="3">
         <v>15</v>
       </c>
-      <c r="C124" s="3"/>
       <c r="D124" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F124" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" s="2" customFormat="1" spans="1:13">
+    <row r="125" s="2" customFormat="1" spans="1:14">
       <c r="A125" s="2">
         <v>100901</v>
       </c>
@@ -6595,32 +6480,30 @@
         <v>100902</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G125" s="8"/>
       <c r="H125" s="2" t="str">
-        <f t="shared" ref="H125:H128" si="49">L125&amp;"|"&amp;M125</f>
+        <f t="shared" ref="H125:H128" si="49">M125&amp;"|"&amp;N125</f>
         <v>1005|10</v>
       </c>
       <c r="I125" s="2">
         <v>1000</v>
       </c>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L125" s="2">
+      <c r="L125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M125" s="2">
         <v>1005</v>
       </c>
-      <c r="M125" s="2">
+      <c r="N125" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" spans="1:13">
+    <row r="126" s="2" customFormat="1" spans="1:14">
       <c r="A126" s="2">
         <v>100902</v>
       </c>
@@ -6632,12 +6515,11 @@
         <v>100903</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F126" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G126" s="8"/>
       <c r="H126" s="2" t="str">
         <f t="shared" si="49"/>
@@ -6647,18 +6529,18 @@
         <f t="shared" ref="I126:I138" si="51">I125+1000</f>
         <v>2000</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L126" s="2">
+      <c r="L126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M126" s="2">
         <v>1005</v>
       </c>
-      <c r="M126" s="2">
-        <f t="shared" ref="M126:M138" si="52">M125+5</f>
+      <c r="N126" s="2">
+        <f t="shared" ref="N126:N138" si="52">N125+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" spans="1:13">
+    <row r="127" s="2" customFormat="1" spans="1:14">
       <c r="A127" s="2">
         <v>100903</v>
       </c>
@@ -6670,12 +6552,11 @@
         <v>100904</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F127" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G127" s="8"/>
       <c r="H127" s="2" t="str">
         <f t="shared" si="49"/>
@@ -6685,18 +6566,18 @@
         <f t="shared" si="51"/>
         <v>3000</v>
       </c>
-      <c r="K127" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L127" s="2">
+      <c r="L127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M127" s="2">
         <v>1005</v>
       </c>
-      <c r="M127" s="2">
+      <c r="N127" s="2">
         <f t="shared" si="52"/>
         <v>20</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:13">
+    <row r="128" s="2" customFormat="1" spans="1:14">
       <c r="A128" s="2">
         <v>100904</v>
       </c>
@@ -6708,12 +6589,11 @@
         <v>100905</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G128" s="8"/>
       <c r="H128" s="2" t="str">
         <f t="shared" si="49"/>
@@ -6723,18 +6603,18 @@
         <f t="shared" si="51"/>
         <v>4000</v>
       </c>
-      <c r="K128" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L128" s="2">
+      <c r="L128" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M128" s="2">
         <v>1005</v>
       </c>
-      <c r="M128" s="2">
+      <c r="N128" s="2">
         <f t="shared" si="52"/>
         <v>25</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" spans="1:16">
+    <row r="129" s="2" customFormat="1" spans="1:17">
       <c r="A129" s="2">
         <v>100905</v>
       </c>
@@ -6746,44 +6626,43 @@
         <v>100906</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G129" s="8"/>
       <c r="H129" s="2" t="str">
-        <f>L129&amp;"|"&amp;M129&amp;";"&amp;O129&amp;"|"&amp;P129</f>
+        <f>M129&amp;"|"&amp;N129&amp;";"&amp;P129&amp;"|"&amp;Q129</f>
         <v>1005|30;100901|2</v>
       </c>
       <c r="I129" s="2">
         <f t="shared" si="51"/>
         <v>5000</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L129" s="2">
+      <c r="L129" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M129" s="2">
         <v>1005</v>
       </c>
-      <c r="M129" s="2">
+      <c r="N129" s="2">
         <f t="shared" si="52"/>
         <v>30</v>
       </c>
-      <c r="N129" s="2" t="str">
+      <c r="O129" s="2" t="str">
         <f>D125</f>
         <v>Amulet1</v>
       </c>
-      <c r="O129" s="2">
+      <c r="P129" s="2">
         <f>A125</f>
         <v>100901</v>
       </c>
-      <c r="P129" s="2">
+      <c r="Q129" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" spans="1:13">
+    <row r="130" s="2" customFormat="1" spans="1:14">
       <c r="A130" s="2">
         <v>100906</v>
       </c>
@@ -6795,33 +6674,32 @@
         <v>100907</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G130" s="8"/>
       <c r="H130" s="2" t="str">
-        <f t="shared" ref="H130:H133" si="53">L130&amp;"|"&amp;M130</f>
+        <f t="shared" ref="H130:H133" si="53">M130&amp;"|"&amp;N130</f>
         <v>1005|35</v>
       </c>
       <c r="I130" s="2">
         <f t="shared" si="51"/>
         <v>6000</v>
       </c>
-      <c r="K130" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L130" s="2">
+      <c r="L130" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M130" s="2">
         <v>1005</v>
       </c>
-      <c r="M130" s="2">
+      <c r="N130" s="2">
         <f t="shared" si="52"/>
         <v>35</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:13">
+    <row r="131" s="2" customFormat="1" spans="1:14">
       <c r="A131" s="2">
         <v>100907</v>
       </c>
@@ -6833,12 +6711,11 @@
         <v>100908</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F131" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G131" s="8"/>
       <c r="H131" s="2" t="str">
         <f t="shared" si="53"/>
@@ -6848,18 +6725,18 @@
         <f t="shared" si="51"/>
         <v>7000</v>
       </c>
-      <c r="K131" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L131" s="2">
+      <c r="L131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M131" s="2">
         <v>1005</v>
       </c>
-      <c r="M131" s="2">
+      <c r="N131" s="2">
         <f t="shared" si="52"/>
         <v>40</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:13">
+    <row r="132" s="2" customFormat="1" spans="1:14">
       <c r="A132" s="2">
         <v>100908</v>
       </c>
@@ -6871,12 +6748,11 @@
         <v>100909</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F132" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G132" s="8"/>
       <c r="H132" s="2" t="str">
         <f t="shared" si="53"/>
@@ -6886,18 +6762,18 @@
         <f t="shared" si="51"/>
         <v>8000</v>
       </c>
-      <c r="K132" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L132" s="2">
+      <c r="L132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M132" s="2">
         <v>1005</v>
       </c>
-      <c r="M132" s="2">
+      <c r="N132" s="2">
         <f t="shared" si="52"/>
         <v>45</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:13">
+    <row r="133" s="2" customFormat="1" spans="1:14">
       <c r="A133" s="2">
         <v>100909</v>
       </c>
@@ -6909,12 +6785,11 @@
         <v>100910</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F133" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G133" s="8"/>
       <c r="H133" s="2" t="str">
         <f t="shared" si="53"/>
@@ -6924,18 +6799,18 @@
         <f t="shared" si="51"/>
         <v>9000</v>
       </c>
-      <c r="K133" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L133" s="2">
+      <c r="L133" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M133" s="2">
         <v>1005</v>
       </c>
-      <c r="M133" s="2">
+      <c r="N133" s="2">
         <f t="shared" si="52"/>
         <v>50</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" spans="1:16">
+    <row r="134" s="2" customFormat="1" spans="1:17">
       <c r="A134" s="2">
         <v>100910</v>
       </c>
@@ -6947,44 +6822,43 @@
         <v>100911</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G134" s="8"/>
       <c r="H134" s="2" t="str">
-        <f>L134&amp;"|"&amp;M134&amp;";"&amp;O134&amp;"|"&amp;P134</f>
+        <f>M134&amp;"|"&amp;N134&amp;";"&amp;P134&amp;"|"&amp;Q134</f>
         <v>1005|55;100901|5</v>
       </c>
       <c r="I134" s="2">
         <f t="shared" si="51"/>
         <v>10000</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L134" s="2">
+      <c r="L134" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M134" s="2">
         <v>1005</v>
       </c>
-      <c r="M134" s="2">
+      <c r="N134" s="2">
         <f t="shared" si="52"/>
         <v>55</v>
       </c>
-      <c r="N134" s="2" t="str">
+      <c r="O134" s="2" t="str">
         <f>D125</f>
         <v>Amulet1</v>
       </c>
-      <c r="O134" s="2">
+      <c r="P134" s="2">
         <f>A125</f>
         <v>100901</v>
       </c>
-      <c r="P134" s="2">
+      <c r="Q134" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:13">
+    <row r="135" s="2" customFormat="1" spans="1:14">
       <c r="A135" s="2">
         <v>100911</v>
       </c>
@@ -6996,33 +6870,32 @@
         <v>100912</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F135" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G135" s="8"/>
       <c r="H135" s="2" t="str">
-        <f t="shared" ref="H135:H137" si="54">L135&amp;"|"&amp;M135</f>
+        <f t="shared" ref="H135:H137" si="54">M135&amp;"|"&amp;N135</f>
         <v>1005|60</v>
       </c>
       <c r="I135" s="2">
         <f t="shared" si="51"/>
         <v>11000</v>
       </c>
-      <c r="K135" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L135" s="2">
+      <c r="L135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M135" s="2">
         <v>1005</v>
       </c>
-      <c r="M135" s="2">
+      <c r="N135" s="2">
         <f t="shared" si="52"/>
         <v>60</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:13">
+    <row r="136" s="2" customFormat="1" spans="1:14">
       <c r="A136" s="2">
         <v>100912</v>
       </c>
@@ -7034,12 +6907,11 @@
         <v>100913</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F136" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G136" s="8"/>
       <c r="H136" s="2" t="str">
         <f t="shared" si="54"/>
@@ -7049,18 +6921,18 @@
         <f t="shared" si="51"/>
         <v>12000</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L136" s="2">
+      <c r="L136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M136" s="2">
         <v>1005</v>
       </c>
-      <c r="M136" s="2">
+      <c r="N136" s="2">
         <f t="shared" si="52"/>
         <v>65</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" spans="1:13">
+    <row r="137" s="2" customFormat="1" spans="1:14">
       <c r="A137" s="2">
         <v>100913</v>
       </c>
@@ -7072,12 +6944,11 @@
         <v>100914</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F137" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G137" s="8"/>
       <c r="H137" s="2" t="str">
         <f t="shared" si="54"/>
@@ -7087,18 +6958,18 @@
         <f t="shared" si="51"/>
         <v>13000</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L137" s="2">
+      <c r="L137" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M137" s="2">
         <v>1005</v>
       </c>
-      <c r="M137" s="2">
+      <c r="N137" s="2">
         <f t="shared" si="52"/>
         <v>70</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:16">
+    <row r="138" s="2" customFormat="1" spans="1:17">
       <c r="A138" s="2">
         <v>100914</v>
       </c>
@@ -7110,40 +6981,39 @@
         <v>100915</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F138" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G138" s="8"/>
       <c r="H138" s="2" t="str">
-        <f>L138&amp;"|"&amp;M138&amp;";"&amp;O138&amp;"|"&amp;P138</f>
+        <f>M138&amp;"|"&amp;N138&amp;";"&amp;P138&amp;"|"&amp;Q138</f>
         <v>1005|75;100901|8</v>
       </c>
       <c r="I138" s="2">
         <f t="shared" si="51"/>
         <v>14000</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L138" s="2">
+      <c r="L138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M138" s="2">
         <v>1005</v>
       </c>
-      <c r="M138" s="2">
+      <c r="N138" s="2">
         <f t="shared" si="52"/>
         <v>75</v>
       </c>
-      <c r="N138" s="2" t="str">
+      <c r="O138" s="2" t="str">
         <f>D125</f>
         <v>Amulet1</v>
       </c>
-      <c r="O138" s="2">
+      <c r="P138" s="2">
         <f>A125</f>
         <v>100901</v>
       </c>
-      <c r="P138" s="2">
+      <c r="Q138" s="2">
         <v>8</v>
       </c>
     </row>
@@ -7154,17 +7024,15 @@
       <c r="B139" s="2">
         <v>15</v>
       </c>
-      <c r="C139" s="2"/>
       <c r="D139" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F139" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" s="3" customFormat="1" spans="1:13">
+    <row r="140" s="3" customFormat="1" spans="1:14">
       <c r="A140" s="3">
         <v>101001</v>
       </c>
@@ -7176,31 +7044,30 @@
         <v>101002</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F140" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G140" s="10"/>
       <c r="H140" s="3" t="str">
-        <f t="shared" ref="H140:H143" si="55">L140&amp;"|"&amp;M140</f>
+        <f t="shared" ref="H140:H143" si="55">M140&amp;"|"&amp;N140</f>
         <v>1036|10</v>
       </c>
       <c r="I140" s="3">
         <v>1000</v>
       </c>
-      <c r="K140" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L140" s="3">
+      <c r="L140" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M140" s="3">
         <v>1036</v>
       </c>
-      <c r="M140" s="3">
+      <c r="N140" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="141" s="3" customFormat="1" spans="1:13">
+    <row r="141" s="3" customFormat="1" spans="1:14">
       <c r="A141" s="3">
         <v>101002</v>
       </c>
@@ -7212,12 +7079,11 @@
         <v>101003</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F141" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G141" s="10"/>
       <c r="H141" s="3" t="str">
         <f t="shared" si="55"/>
@@ -7227,18 +7093,18 @@
         <f t="shared" ref="I141:I153" si="57">I140+1000</f>
         <v>2000</v>
       </c>
-      <c r="K141" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L141" s="3">
+      <c r="L141" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M141" s="3">
         <v>1036</v>
       </c>
-      <c r="M141" s="3">
-        <f t="shared" ref="M141:M153" si="58">M140+5</f>
+      <c r="N141" s="3">
+        <f t="shared" ref="N141:N153" si="58">N140+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="142" s="3" customFormat="1" spans="1:13">
+    <row r="142" s="3" customFormat="1" spans="1:14">
       <c r="A142" s="3">
         <v>101003</v>
       </c>
@@ -7250,12 +7116,11 @@
         <v>101004</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F142" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G142" s="10"/>
       <c r="H142" s="3" t="str">
         <f t="shared" si="55"/>
@@ -7265,18 +7130,18 @@
         <f t="shared" si="57"/>
         <v>3000</v>
       </c>
-      <c r="K142" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L142" s="3">
+      <c r="L142" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M142" s="3">
         <v>1036</v>
       </c>
-      <c r="M142" s="3">
+      <c r="N142" s="3">
         <f t="shared" si="58"/>
         <v>20</v>
       </c>
     </row>
-    <row r="143" s="3" customFormat="1" spans="1:13">
+    <row r="143" s="3" customFormat="1" spans="1:14">
       <c r="A143" s="3">
         <v>101004</v>
       </c>
@@ -7288,12 +7153,11 @@
         <v>101005</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F143" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G143" s="10"/>
       <c r="H143" s="3" t="str">
         <f t="shared" si="55"/>
@@ -7303,18 +7167,18 @@
         <f t="shared" si="57"/>
         <v>4000</v>
       </c>
-      <c r="K143" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L143" s="3">
+      <c r="L143" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M143" s="3">
         <v>1036</v>
       </c>
-      <c r="M143" s="3">
+      <c r="N143" s="3">
         <f t="shared" si="58"/>
         <v>25</v>
       </c>
     </row>
-    <row r="144" s="3" customFormat="1" spans="1:16">
+    <row r="144" s="3" customFormat="1" spans="1:17">
       <c r="A144" s="3">
         <v>101005</v>
       </c>
@@ -7326,44 +7190,43 @@
         <v>101006</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F144" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G144" s="10"/>
       <c r="H144" s="3" t="str">
-        <f>L144&amp;"|"&amp;M144&amp;";"&amp;O144&amp;"|"&amp;P144</f>
+        <f>M144&amp;"|"&amp;N144&amp;";"&amp;P144&amp;"|"&amp;Q144</f>
         <v>1036|30;101001|2</v>
       </c>
       <c r="I144" s="3">
         <f t="shared" si="57"/>
         <v>5000</v>
       </c>
-      <c r="K144" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L144" s="3">
+      <c r="L144" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M144" s="3">
         <v>1036</v>
       </c>
-      <c r="M144" s="3">
+      <c r="N144" s="3">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="N144" s="3" t="str">
+      <c r="O144" s="3" t="str">
         <f>D140</f>
         <v>Earring1</v>
       </c>
-      <c r="O144" s="3">
+      <c r="P144" s="3">
         <f>A140</f>
         <v>101001</v>
       </c>
-      <c r="P144" s="3">
+      <c r="Q144" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="145" s="3" customFormat="1" spans="1:13">
+    <row r="145" s="3" customFormat="1" spans="1:14">
       <c r="A145" s="3">
         <v>101006</v>
       </c>
@@ -7375,33 +7238,32 @@
         <v>101007</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F145" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G145" s="10"/>
       <c r="H145" s="3" t="str">
-        <f t="shared" ref="H145:H148" si="59">L145&amp;"|"&amp;M145</f>
+        <f t="shared" ref="H145:H148" si="59">M145&amp;"|"&amp;N145</f>
         <v>1036|35</v>
       </c>
       <c r="I145" s="3">
         <f t="shared" si="57"/>
         <v>6000</v>
       </c>
-      <c r="K145" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L145" s="3">
+      <c r="L145" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M145" s="3">
         <v>1036</v>
       </c>
-      <c r="M145" s="3">
+      <c r="N145" s="3">
         <f t="shared" si="58"/>
         <v>35</v>
       </c>
     </row>
-    <row r="146" s="3" customFormat="1" spans="1:13">
+    <row r="146" s="3" customFormat="1" spans="1:14">
       <c r="A146" s="3">
         <v>101007</v>
       </c>
@@ -7413,12 +7275,11 @@
         <v>101008</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F146" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G146" s="10"/>
       <c r="H146" s="3" t="str">
         <f t="shared" si="59"/>
@@ -7428,18 +7289,18 @@
         <f t="shared" si="57"/>
         <v>7000</v>
       </c>
-      <c r="K146" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L146" s="3">
+      <c r="L146" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M146" s="3">
         <v>1036</v>
       </c>
-      <c r="M146" s="3">
+      <c r="N146" s="3">
         <f t="shared" si="58"/>
         <v>40</v>
       </c>
     </row>
-    <row r="147" s="3" customFormat="1" spans="1:13">
+    <row r="147" s="3" customFormat="1" spans="1:14">
       <c r="A147" s="3">
         <v>101008</v>
       </c>
@@ -7451,12 +7312,11 @@
         <v>101009</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F147" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G147" s="10"/>
       <c r="H147" s="3" t="str">
         <f t="shared" si="59"/>
@@ -7466,18 +7326,18 @@
         <f t="shared" si="57"/>
         <v>8000</v>
       </c>
-      <c r="K147" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L147" s="3">
+      <c r="L147" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M147" s="3">
         <v>1036</v>
       </c>
-      <c r="M147" s="3">
+      <c r="N147" s="3">
         <f t="shared" si="58"/>
         <v>45</v>
       </c>
     </row>
-    <row r="148" s="3" customFormat="1" spans="1:13">
+    <row r="148" s="3" customFormat="1" spans="1:14">
       <c r="A148" s="3">
         <v>101009</v>
       </c>
@@ -7489,12 +7349,11 @@
         <v>101010</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F148" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G148" s="10"/>
       <c r="H148" s="3" t="str">
         <f t="shared" si="59"/>
@@ -7504,18 +7363,18 @@
         <f t="shared" si="57"/>
         <v>9000</v>
       </c>
-      <c r="K148" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L148" s="3">
+      <c r="L148" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M148" s="3">
         <v>1036</v>
       </c>
-      <c r="M148" s="3">
+      <c r="N148" s="3">
         <f t="shared" si="58"/>
         <v>50</v>
       </c>
     </row>
-    <row r="149" s="3" customFormat="1" spans="1:16">
+    <row r="149" s="3" customFormat="1" spans="1:17">
       <c r="A149" s="3">
         <v>101010</v>
       </c>
@@ -7527,44 +7386,43 @@
         <v>101011</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F149" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G149" s="10"/>
       <c r="H149" s="3" t="str">
-        <f>L149&amp;"|"&amp;M149&amp;";"&amp;O149&amp;"|"&amp;P149</f>
+        <f>M149&amp;"|"&amp;N149&amp;";"&amp;P149&amp;"|"&amp;Q149</f>
         <v>1036|55;101001|5</v>
       </c>
       <c r="I149" s="3">
         <f t="shared" si="57"/>
         <v>10000</v>
       </c>
-      <c r="K149" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L149" s="3">
+      <c r="L149" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M149" s="3">
         <v>1036</v>
       </c>
-      <c r="M149" s="3">
+      <c r="N149" s="3">
         <f t="shared" si="58"/>
         <v>55</v>
       </c>
-      <c r="N149" s="3" t="str">
+      <c r="O149" s="3" t="str">
         <f>D140</f>
         <v>Earring1</v>
       </c>
-      <c r="O149" s="3">
+      <c r="P149" s="3">
         <f>A140</f>
         <v>101001</v>
       </c>
-      <c r="P149" s="3">
+      <c r="Q149" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="150" s="3" customFormat="1" spans="1:13">
+    <row r="150" s="3" customFormat="1" spans="1:14">
       <c r="A150" s="3">
         <v>101011</v>
       </c>
@@ -7576,33 +7434,32 @@
         <v>101012</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F150" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G150" s="10"/>
       <c r="H150" s="3" t="str">
-        <f t="shared" ref="H150:H152" si="60">L150&amp;"|"&amp;M150</f>
+        <f t="shared" ref="H150:H152" si="60">M150&amp;"|"&amp;N150</f>
         <v>1036|60</v>
       </c>
       <c r="I150" s="3">
         <f t="shared" si="57"/>
         <v>11000</v>
       </c>
-      <c r="K150" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L150" s="3">
+      <c r="L150" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M150" s="3">
         <v>1036</v>
       </c>
-      <c r="M150" s="3">
+      <c r="N150" s="3">
         <f t="shared" si="58"/>
         <v>60</v>
       </c>
     </row>
-    <row r="151" s="3" customFormat="1" spans="1:13">
+    <row r="151" s="3" customFormat="1" spans="1:14">
       <c r="A151" s="3">
         <v>101012</v>
       </c>
@@ -7614,12 +7471,11 @@
         <v>101013</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F151" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G151" s="10"/>
       <c r="H151" s="3" t="str">
         <f t="shared" si="60"/>
@@ -7629,18 +7485,18 @@
         <f t="shared" si="57"/>
         <v>12000</v>
       </c>
-      <c r="K151" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L151" s="3">
+      <c r="L151" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M151" s="3">
         <v>1036</v>
       </c>
-      <c r="M151" s="3">
+      <c r="N151" s="3">
         <f t="shared" si="58"/>
         <v>65</v>
       </c>
     </row>
-    <row r="152" s="3" customFormat="1" spans="1:13">
+    <row r="152" s="3" customFormat="1" spans="1:14">
       <c r="A152" s="3">
         <v>101013</v>
       </c>
@@ -7652,12 +7508,11 @@
         <v>101014</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F152" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G152" s="10"/>
       <c r="H152" s="3" t="str">
         <f t="shared" si="60"/>
@@ -7667,18 +7522,18 @@
         <f t="shared" si="57"/>
         <v>13000</v>
       </c>
-      <c r="K152" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L152" s="3">
+      <c r="L152" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M152" s="3">
         <v>1036</v>
       </c>
-      <c r="M152" s="3">
+      <c r="N152" s="3">
         <f t="shared" si="58"/>
         <v>70</v>
       </c>
     </row>
-    <row r="153" s="3" customFormat="1" spans="1:16">
+    <row r="153" s="3" customFormat="1" spans="1:17">
       <c r="A153" s="3">
         <v>101014</v>
       </c>
@@ -7690,40 +7545,39 @@
         <v>101015</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F153" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G153" s="10"/>
       <c r="H153" s="3" t="str">
-        <f>L153&amp;"|"&amp;M153&amp;";"&amp;O153&amp;"|"&amp;P153</f>
+        <f>M153&amp;"|"&amp;N153&amp;";"&amp;P153&amp;"|"&amp;Q153</f>
         <v>1036|75;101001|8</v>
       </c>
       <c r="I153" s="3">
         <f t="shared" si="57"/>
         <v>14000</v>
       </c>
-      <c r="K153" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L153" s="3">
+      <c r="L153" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M153" s="3">
         <v>1036</v>
       </c>
-      <c r="M153" s="3">
+      <c r="N153" s="3">
         <f t="shared" si="58"/>
         <v>75</v>
       </c>
-      <c r="N153" s="3" t="str">
+      <c r="O153" s="3" t="str">
         <f>D140</f>
         <v>Earring1</v>
       </c>
-      <c r="O153" s="3">
+      <c r="P153" s="3">
         <f>A140</f>
         <v>101001</v>
       </c>
-      <c r="P153" s="3">
+      <c r="Q153" s="3">
         <v>8</v>
       </c>
     </row>
@@ -7734,17 +7588,15 @@
       <c r="B154" s="3">
         <v>15</v>
       </c>
-      <c r="C154" s="3"/>
       <c r="D154" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F154" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G154" s="10"/>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:13">
+    <row r="155" s="2" customFormat="1" spans="1:14">
       <c r="A155" s="2">
         <v>101101</v>
       </c>
@@ -7756,32 +7608,30 @@
         <v>101102</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F155" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G155" s="8"/>
       <c r="H155" s="2" t="str">
-        <f t="shared" ref="H155:H158" si="61">L155&amp;"|"&amp;M155</f>
+        <f t="shared" ref="H155:H158" si="61">M155&amp;"|"&amp;N155</f>
         <v>1046|10</v>
       </c>
       <c r="I155" s="2">
         <v>1000</v>
       </c>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L155" s="2">
+      <c r="L155" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M155" s="2">
         <v>1046</v>
       </c>
-      <c r="M155" s="2">
+      <c r="N155" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:13">
+    <row r="156" s="2" customFormat="1" spans="1:14">
       <c r="A156" s="2">
         <v>101102</v>
       </c>
@@ -7793,12 +7643,11 @@
         <v>101103</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F156" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G156" s="8"/>
       <c r="H156" s="2" t="str">
         <f t="shared" si="61"/>
@@ -7808,18 +7657,18 @@
         <f t="shared" ref="I156:I168" si="63">I155+1000</f>
         <v>2000</v>
       </c>
-      <c r="K156" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L156" s="2">
+      <c r="L156" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M156" s="2">
         <v>1046</v>
       </c>
-      <c r="M156" s="2">
-        <f t="shared" ref="M156:M168" si="64">M155+5</f>
+      <c r="N156" s="2">
+        <f t="shared" ref="N156:N168" si="64">N155+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:13">
+    <row r="157" s="2" customFormat="1" spans="1:14">
       <c r="A157" s="2">
         <v>101103</v>
       </c>
@@ -7831,12 +7680,11 @@
         <v>101104</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F157" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G157" s="8"/>
       <c r="H157" s="2" t="str">
         <f t="shared" si="61"/>
@@ -7846,18 +7694,18 @@
         <f t="shared" si="63"/>
         <v>3000</v>
       </c>
-      <c r="K157" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L157" s="2">
+      <c r="L157" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M157" s="2">
         <v>1046</v>
       </c>
-      <c r="M157" s="2">
+      <c r="N157" s="2">
         <f t="shared" si="64"/>
         <v>20</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:13">
+    <row r="158" s="2" customFormat="1" spans="1:14">
       <c r="A158" s="2">
         <v>101104</v>
       </c>
@@ -7869,12 +7717,11 @@
         <v>101105</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F158" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G158" s="8"/>
       <c r="H158" s="2" t="str">
         <f t="shared" si="61"/>
@@ -7884,18 +7731,18 @@
         <f t="shared" si="63"/>
         <v>4000</v>
       </c>
-      <c r="K158" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L158" s="2">
+      <c r="L158" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M158" s="2">
         <v>1046</v>
       </c>
-      <c r="M158" s="2">
+      <c r="N158" s="2">
         <f t="shared" si="64"/>
         <v>25</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:16">
+    <row r="159" s="2" customFormat="1" spans="1:17">
       <c r="A159" s="2">
         <v>101105</v>
       </c>
@@ -7907,44 +7754,43 @@
         <v>101106</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F159" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G159" s="8"/>
       <c r="H159" s="2" t="str">
-        <f>L159&amp;"|"&amp;M159&amp;";"&amp;O159&amp;"|"&amp;P159</f>
+        <f>M159&amp;"|"&amp;N159&amp;";"&amp;P159&amp;"|"&amp;Q159</f>
         <v>1046|30;101101|2</v>
       </c>
       <c r="I159" s="2">
         <f t="shared" si="63"/>
         <v>5000</v>
       </c>
-      <c r="K159" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L159" s="2">
+      <c r="L159" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M159" s="2">
         <v>1046</v>
       </c>
-      <c r="M159" s="2">
+      <c r="N159" s="2">
         <f t="shared" si="64"/>
         <v>30</v>
       </c>
-      <c r="N159" s="2" t="str">
+      <c r="O159" s="2" t="str">
         <f>D155</f>
         <v>Wrist Band1</v>
       </c>
-      <c r="O159" s="2">
+      <c r="P159" s="2">
         <f>A155</f>
         <v>101101</v>
       </c>
-      <c r="P159" s="2">
+      <c r="Q159" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="1" spans="1:13">
+    <row r="160" s="2" customFormat="1" spans="1:14">
       <c r="A160" s="2">
         <v>101106</v>
       </c>
@@ -7956,33 +7802,32 @@
         <v>101107</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F160" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G160" s="8"/>
       <c r="H160" s="2" t="str">
-        <f t="shared" ref="H160:H163" si="65">L160&amp;"|"&amp;M160</f>
+        <f t="shared" ref="H160:H163" si="65">M160&amp;"|"&amp;N160</f>
         <v>1046|35</v>
       </c>
       <c r="I160" s="2">
         <f t="shared" si="63"/>
         <v>6000</v>
       </c>
-      <c r="K160" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L160" s="2">
+      <c r="L160" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M160" s="2">
         <v>1046</v>
       </c>
-      <c r="M160" s="2">
+      <c r="N160" s="2">
         <f t="shared" si="64"/>
         <v>35</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" spans="1:13">
+    <row r="161" s="2" customFormat="1" spans="1:14">
       <c r="A161" s="2">
         <v>101107</v>
       </c>
@@ -7994,12 +7839,11 @@
         <v>101108</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F161" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G161" s="8"/>
       <c r="H161" s="2" t="str">
         <f t="shared" si="65"/>
@@ -8009,18 +7853,18 @@
         <f t="shared" si="63"/>
         <v>7000</v>
       </c>
-      <c r="K161" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L161" s="2">
+      <c r="L161" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M161" s="2">
         <v>1046</v>
       </c>
-      <c r="M161" s="2">
+      <c r="N161" s="2">
         <f t="shared" si="64"/>
         <v>40</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" spans="1:13">
+    <row r="162" s="2" customFormat="1" spans="1:14">
       <c r="A162" s="2">
         <v>101108</v>
       </c>
@@ -8032,12 +7876,11 @@
         <v>101109</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F162" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G162" s="8"/>
       <c r="H162" s="2" t="str">
         <f t="shared" si="65"/>
@@ -8047,18 +7890,18 @@
         <f t="shared" si="63"/>
         <v>8000</v>
       </c>
-      <c r="K162" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L162" s="2">
+      <c r="L162" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M162" s="2">
         <v>1046</v>
       </c>
-      <c r="M162" s="2">
+      <c r="N162" s="2">
         <f t="shared" si="64"/>
         <v>45</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:13">
+    <row r="163" s="2" customFormat="1" spans="1:14">
       <c r="A163" s="2">
         <v>101109</v>
       </c>
@@ -8070,12 +7913,11 @@
         <v>101110</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F163" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G163" s="8"/>
       <c r="H163" s="2" t="str">
         <f t="shared" si="65"/>
@@ -8085,18 +7927,18 @@
         <f t="shared" si="63"/>
         <v>9000</v>
       </c>
-      <c r="K163" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L163" s="2">
+      <c r="L163" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M163" s="2">
         <v>1046</v>
       </c>
-      <c r="M163" s="2">
+      <c r="N163" s="2">
         <f t="shared" si="64"/>
         <v>50</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="1" spans="1:16">
+    <row r="164" s="2" customFormat="1" spans="1:17">
       <c r="A164" s="2">
         <v>101110</v>
       </c>
@@ -8108,44 +7950,43 @@
         <v>101111</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F164" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G164" s="8"/>
       <c r="H164" s="2" t="str">
-        <f>L164&amp;"|"&amp;M164&amp;";"&amp;O164&amp;"|"&amp;P164</f>
+        <f>M164&amp;"|"&amp;N164&amp;";"&amp;P164&amp;"|"&amp;Q164</f>
         <v>1046|55;101101|5</v>
       </c>
       <c r="I164" s="2">
         <f t="shared" si="63"/>
         <v>10000</v>
       </c>
-      <c r="K164" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L164" s="2">
+      <c r="L164" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M164" s="2">
         <v>1046</v>
       </c>
-      <c r="M164" s="2">
+      <c r="N164" s="2">
         <f t="shared" si="64"/>
         <v>55</v>
       </c>
-      <c r="N164" s="2" t="str">
+      <c r="O164" s="2" t="str">
         <f>D155</f>
         <v>Wrist Band1</v>
       </c>
-      <c r="O164" s="2">
+      <c r="P164" s="2">
         <f>A155</f>
         <v>101101</v>
       </c>
-      <c r="P164" s="2">
+      <c r="Q164" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="165" s="2" customFormat="1" spans="1:13">
+    <row r="165" s="2" customFormat="1" spans="1:14">
       <c r="A165" s="2">
         <v>101111</v>
       </c>
@@ -8157,33 +7998,32 @@
         <v>101112</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F165" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G165" s="8"/>
       <c r="H165" s="2" t="str">
-        <f t="shared" ref="H165:H167" si="66">L165&amp;"|"&amp;M165</f>
+        <f t="shared" ref="H165:H167" si="66">M165&amp;"|"&amp;N165</f>
         <v>1046|60</v>
       </c>
       <c r="I165" s="2">
         <f t="shared" si="63"/>
         <v>11000</v>
       </c>
-      <c r="K165" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L165" s="2">
+      <c r="L165" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M165" s="2">
         <v>1046</v>
       </c>
-      <c r="M165" s="2">
+      <c r="N165" s="2">
         <f t="shared" si="64"/>
         <v>60</v>
       </c>
     </row>
-    <row r="166" s="2" customFormat="1" spans="1:13">
+    <row r="166" s="2" customFormat="1" spans="1:14">
       <c r="A166" s="2">
         <v>101112</v>
       </c>
@@ -8195,12 +8035,11 @@
         <v>101113</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F166" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G166" s="8"/>
       <c r="H166" s="2" t="str">
         <f t="shared" si="66"/>
@@ -8210,18 +8049,18 @@
         <f t="shared" si="63"/>
         <v>12000</v>
       </c>
-      <c r="K166" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L166" s="2">
+      <c r="L166" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M166" s="2">
         <v>1046</v>
       </c>
-      <c r="M166" s="2">
+      <c r="N166" s="2">
         <f t="shared" si="64"/>
         <v>65</v>
       </c>
     </row>
-    <row r="167" s="2" customFormat="1" spans="1:13">
+    <row r="167" s="2" customFormat="1" spans="1:14">
       <c r="A167" s="2">
         <v>101113</v>
       </c>
@@ -8233,12 +8072,11 @@
         <v>101114</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F167" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G167" s="8"/>
       <c r="H167" s="2" t="str">
         <f t="shared" si="66"/>
@@ -8248,18 +8086,18 @@
         <f t="shared" si="63"/>
         <v>13000</v>
       </c>
-      <c r="K167" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L167" s="2">
+      <c r="L167" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M167" s="2">
         <v>1046</v>
       </c>
-      <c r="M167" s="2">
+      <c r="N167" s="2">
         <f t="shared" si="64"/>
         <v>70</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="1" spans="1:16">
+    <row r="168" s="2" customFormat="1" spans="1:17">
       <c r="A168" s="2">
         <v>101114</v>
       </c>
@@ -8271,40 +8109,39 @@
         <v>101115</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F168" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G168" s="8"/>
       <c r="H168" s="2" t="str">
-        <f>L168&amp;"|"&amp;M168&amp;";"&amp;O168&amp;"|"&amp;P168</f>
+        <f>M168&amp;"|"&amp;N168&amp;";"&amp;P168&amp;"|"&amp;Q168</f>
         <v>1046|75;101101|8</v>
       </c>
       <c r="I168" s="2">
         <f t="shared" si="63"/>
         <v>14000</v>
       </c>
-      <c r="K168" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L168" s="2">
+      <c r="L168" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M168" s="2">
         <v>1046</v>
       </c>
-      <c r="M168" s="2">
+      <c r="N168" s="2">
         <f t="shared" si="64"/>
         <v>75</v>
       </c>
-      <c r="N168" s="2" t="str">
+      <c r="O168" s="2" t="str">
         <f>D155</f>
         <v>Wrist Band1</v>
       </c>
-      <c r="O168" s="2">
+      <c r="P168" s="2">
         <f>A155</f>
         <v>101101</v>
       </c>
-      <c r="P168" s="2">
+      <c r="Q168" s="2">
         <v>8</v>
       </c>
     </row>
@@ -8315,17 +8152,15 @@
       <c r="B169" s="2">
         <v>15</v>
       </c>
-      <c r="C169" s="2"/>
       <c r="D169" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F169" s="2"/>
+        <v>134</v>
+      </c>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" s="3" customFormat="1" spans="1:13">
+    <row r="170" s="3" customFormat="1" spans="1:14">
       <c r="A170" s="3">
         <v>101201</v>
       </c>
@@ -8337,31 +8172,30 @@
         <v>101202</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F170" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G170" s="10"/>
       <c r="H170" s="3" t="str">
-        <f t="shared" ref="H170:H173" si="67">L170&amp;"|"&amp;M170</f>
+        <f t="shared" ref="H170:H173" si="67">M170&amp;"|"&amp;N170</f>
         <v>1005|10</v>
       </c>
       <c r="I170" s="3">
         <v>1000</v>
       </c>
-      <c r="K170" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L170" s="3">
+      <c r="L170" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M170" s="3">
         <v>1005</v>
       </c>
-      <c r="M170" s="3">
+      <c r="N170" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="171" s="3" customFormat="1" spans="1:13">
+    <row r="171" s="3" customFormat="1" spans="1:14">
       <c r="A171" s="3">
         <v>101202</v>
       </c>
@@ -8373,12 +8207,11 @@
         <v>101203</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F171" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G171" s="10"/>
       <c r="H171" s="3" t="str">
         <f t="shared" si="67"/>
@@ -8388,18 +8221,18 @@
         <f t="shared" ref="I171:I183" si="68">I170+1000</f>
         <v>2000</v>
       </c>
-      <c r="K171" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L171" s="3">
+      <c r="L171" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M171" s="3">
         <v>1005</v>
       </c>
-      <c r="M171" s="3">
-        <f t="shared" ref="M171:M183" si="69">M170+5</f>
+      <c r="N171" s="3">
+        <f t="shared" ref="N171:N183" si="69">N170+5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="172" s="3" customFormat="1" spans="1:13">
+    <row r="172" s="3" customFormat="1" spans="1:14">
       <c r="A172" s="3">
         <v>101203</v>
       </c>
@@ -8411,12 +8244,11 @@
         <v>101204</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F172" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G172" s="10"/>
       <c r="H172" s="3" t="str">
         <f t="shared" si="67"/>
@@ -8426,18 +8258,18 @@
         <f t="shared" si="68"/>
         <v>3000</v>
       </c>
-      <c r="K172" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L172" s="3">
+      <c r="L172" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M172" s="3">
         <v>1005</v>
       </c>
-      <c r="M172" s="3">
+      <c r="N172" s="3">
         <f t="shared" si="69"/>
         <v>20</v>
       </c>
     </row>
-    <row r="173" s="3" customFormat="1" spans="1:13">
+    <row r="173" s="3" customFormat="1" spans="1:14">
       <c r="A173" s="3">
         <v>101204</v>
       </c>
@@ -8449,12 +8281,11 @@
         <v>101205</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F173" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G173" s="10"/>
       <c r="H173" s="3" t="str">
         <f t="shared" si="67"/>
@@ -8464,18 +8295,18 @@
         <f t="shared" si="68"/>
         <v>4000</v>
       </c>
-      <c r="K173" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L173" s="3">
+      <c r="L173" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M173" s="3">
         <v>1005</v>
       </c>
-      <c r="M173" s="3">
+      <c r="N173" s="3">
         <f t="shared" si="69"/>
         <v>25</v>
       </c>
     </row>
-    <row r="174" s="3" customFormat="1" spans="1:16">
+    <row r="174" s="3" customFormat="1" spans="1:17">
       <c r="A174" s="3">
         <v>101205</v>
       </c>
@@ -8487,44 +8318,43 @@
         <v>101206</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F174" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G174" s="10"/>
       <c r="H174" s="3" t="str">
-        <f>L174&amp;"|"&amp;M174&amp;";"&amp;O174&amp;"|"&amp;P174</f>
+        <f>M174&amp;"|"&amp;N174&amp;";"&amp;P174&amp;"|"&amp;Q174</f>
         <v>1005|30;101201|2</v>
       </c>
       <c r="I174" s="3">
         <f t="shared" si="68"/>
         <v>5000</v>
       </c>
-      <c r="K174" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L174" s="3">
+      <c r="L174" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M174" s="3">
         <v>1005</v>
       </c>
-      <c r="M174" s="3">
+      <c r="N174" s="3">
         <f t="shared" si="69"/>
         <v>30</v>
       </c>
-      <c r="N174" s="3" t="str">
+      <c r="O174" s="3" t="str">
         <f>D170</f>
         <v>Badge1</v>
       </c>
-      <c r="O174" s="3">
+      <c r="P174" s="3">
         <f>A170</f>
         <v>101201</v>
       </c>
-      <c r="P174" s="3">
+      <c r="Q174" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="175" s="3" customFormat="1" spans="1:13">
+    <row r="175" s="3" customFormat="1" spans="1:14">
       <c r="A175" s="3">
         <v>101206</v>
       </c>
@@ -8536,33 +8366,32 @@
         <v>101207</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F175" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G175" s="10"/>
       <c r="H175" s="3" t="str">
-        <f t="shared" ref="H175:H178" si="71">L175&amp;"|"&amp;M175</f>
+        <f t="shared" ref="H175:H178" si="71">M175&amp;"|"&amp;N175</f>
         <v>1005|35</v>
       </c>
       <c r="I175" s="3">
         <f t="shared" si="68"/>
         <v>6000</v>
       </c>
-      <c r="K175" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L175" s="3">
+      <c r="L175" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M175" s="3">
         <v>1005</v>
       </c>
-      <c r="M175" s="3">
+      <c r="N175" s="3">
         <f t="shared" si="69"/>
         <v>35</v>
       </c>
     </row>
-    <row r="176" s="3" customFormat="1" spans="1:13">
+    <row r="176" s="3" customFormat="1" spans="1:14">
       <c r="A176" s="3">
         <v>101207</v>
       </c>
@@ -8574,12 +8403,11 @@
         <v>101208</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F176" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G176" s="10"/>
       <c r="H176" s="3" t="str">
         <f t="shared" si="71"/>
@@ -8589,18 +8417,18 @@
         <f t="shared" si="68"/>
         <v>7000</v>
       </c>
-      <c r="K176" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L176" s="3">
+      <c r="L176" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M176" s="3">
         <v>1005</v>
       </c>
-      <c r="M176" s="3">
+      <c r="N176" s="3">
         <f t="shared" si="69"/>
         <v>40</v>
       </c>
     </row>
-    <row r="177" s="3" customFormat="1" spans="1:13">
+    <row r="177" s="3" customFormat="1" spans="1:14">
       <c r="A177" s="3">
         <v>101208</v>
       </c>
@@ -8612,12 +8440,11 @@
         <v>101209</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F177" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G177" s="10"/>
       <c r="H177" s="3" t="str">
         <f t="shared" si="71"/>
@@ -8627,18 +8454,18 @@
         <f t="shared" si="68"/>
         <v>8000</v>
       </c>
-      <c r="K177" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L177" s="3">
+      <c r="L177" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M177" s="3">
         <v>1005</v>
       </c>
-      <c r="M177" s="3">
+      <c r="N177" s="3">
         <f t="shared" si="69"/>
         <v>45</v>
       </c>
     </row>
-    <row r="178" s="3" customFormat="1" spans="1:13">
+    <row r="178" s="3" customFormat="1" spans="1:14">
       <c r="A178" s="3">
         <v>101209</v>
       </c>
@@ -8650,12 +8477,11 @@
         <v>101210</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F178" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G178" s="10"/>
       <c r="H178" s="3" t="str">
         <f t="shared" si="71"/>
@@ -8665,18 +8491,18 @@
         <f t="shared" si="68"/>
         <v>9000</v>
       </c>
-      <c r="K178" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L178" s="3">
+      <c r="L178" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M178" s="3">
         <v>1005</v>
       </c>
-      <c r="M178" s="3">
+      <c r="N178" s="3">
         <f t="shared" si="69"/>
         <v>50</v>
       </c>
     </row>
-    <row r="179" s="3" customFormat="1" spans="1:16">
+    <row r="179" s="3" customFormat="1" spans="1:17">
       <c r="A179" s="3">
         <v>101210</v>
       </c>
@@ -8688,44 +8514,43 @@
         <v>101211</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F179" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G179" s="10"/>
       <c r="H179" s="3" t="str">
-        <f>L179&amp;"|"&amp;M179&amp;";"&amp;O179&amp;"|"&amp;P179</f>
+        <f>M179&amp;"|"&amp;N179&amp;";"&amp;P179&amp;"|"&amp;Q179</f>
         <v>1005|55;101201|5</v>
       </c>
       <c r="I179" s="3">
         <f t="shared" si="68"/>
         <v>10000</v>
       </c>
-      <c r="K179" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L179" s="3">
+      <c r="L179" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M179" s="3">
         <v>1005</v>
       </c>
-      <c r="M179" s="3">
+      <c r="N179" s="3">
         <f t="shared" si="69"/>
         <v>55</v>
       </c>
-      <c r="N179" s="3" t="str">
+      <c r="O179" s="3" t="str">
         <f>D170</f>
         <v>Badge1</v>
       </c>
-      <c r="O179" s="3">
+      <c r="P179" s="3">
         <f>A170</f>
         <v>101201</v>
       </c>
-      <c r="P179" s="3">
+      <c r="Q179" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="180" s="3" customFormat="1" spans="1:13">
+    <row r="180" s="3" customFormat="1" spans="1:14">
       <c r="A180" s="3">
         <v>101211</v>
       </c>
@@ -8737,33 +8562,32 @@
         <v>101212</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F180" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G180" s="10"/>
       <c r="H180" s="3" t="str">
-        <f t="shared" ref="H180:H182" si="72">L180&amp;"|"&amp;M180</f>
+        <f t="shared" ref="H180:H182" si="72">M180&amp;"|"&amp;N180</f>
         <v>1005|60</v>
       </c>
       <c r="I180" s="3">
         <f t="shared" si="68"/>
         <v>11000</v>
       </c>
-      <c r="K180" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L180" s="3">
+      <c r="L180" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M180" s="3">
         <v>1005</v>
       </c>
-      <c r="M180" s="3">
+      <c r="N180" s="3">
         <f t="shared" si="69"/>
         <v>60</v>
       </c>
     </row>
-    <row r="181" s="3" customFormat="1" spans="1:13">
+    <row r="181" s="3" customFormat="1" spans="1:14">
       <c r="A181" s="3">
         <v>101212</v>
       </c>
@@ -8775,12 +8599,11 @@
         <v>101213</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F181" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G181" s="10"/>
       <c r="H181" s="3" t="str">
         <f t="shared" si="72"/>
@@ -8790,18 +8613,18 @@
         <f t="shared" si="68"/>
         <v>12000</v>
       </c>
-      <c r="K181" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L181" s="3">
+      <c r="L181" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M181" s="3">
         <v>1005</v>
       </c>
-      <c r="M181" s="3">
+      <c r="N181" s="3">
         <f t="shared" si="69"/>
         <v>65</v>
       </c>
     </row>
-    <row r="182" s="3" customFormat="1" spans="1:13">
+    <row r="182" s="3" customFormat="1" spans="1:14">
       <c r="A182" s="3">
         <v>101213</v>
       </c>
@@ -8813,12 +8636,11 @@
         <v>101214</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F182" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G182" s="10"/>
       <c r="H182" s="3" t="str">
         <f t="shared" si="72"/>
@@ -8828,18 +8650,18 @@
         <f t="shared" si="68"/>
         <v>13000</v>
       </c>
-      <c r="K182" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L182" s="3">
+      <c r="L182" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M182" s="3">
         <v>1005</v>
       </c>
-      <c r="M182" s="3">
+      <c r="N182" s="3">
         <f t="shared" si="69"/>
         <v>70</v>
       </c>
     </row>
-    <row r="183" s="3" customFormat="1" spans="1:16">
+    <row r="183" s="3" customFormat="1" spans="1:17">
       <c r="A183" s="3">
         <v>101214</v>
       </c>
@@ -8851,40 +8673,39 @@
         <v>101215</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F183" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G183" s="10"/>
       <c r="H183" s="3" t="str">
-        <f>L183&amp;"|"&amp;M183&amp;";"&amp;O183&amp;"|"&amp;P183</f>
+        <f>M183&amp;"|"&amp;N183&amp;";"&amp;P183&amp;"|"&amp;Q183</f>
         <v>1005|75;101201|8</v>
       </c>
       <c r="I183" s="3">
         <f t="shared" si="68"/>
         <v>14000</v>
       </c>
-      <c r="K183" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="L183" s="3">
+      <c r="L183" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M183" s="3">
         <v>1005</v>
       </c>
-      <c r="M183" s="3">
+      <c r="N183" s="3">
         <f t="shared" si="69"/>
         <v>75</v>
       </c>
-      <c r="N183" s="3" t="str">
+      <c r="O183" s="3" t="str">
         <f>D170</f>
         <v>Badge1</v>
       </c>
-      <c r="O183" s="3">
+      <c r="P183" s="3">
         <f>A170</f>
         <v>101201</v>
       </c>
-      <c r="P183" s="3">
+      <c r="Q183" s="3">
         <v>8</v>
       </c>
     </row>
@@ -8895,14 +8716,12 @@
       <c r="B184" s="3">
         <v>15</v>
       </c>
-      <c r="C184" s="3"/>
       <c r="D184" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F184" s="3"/>
+        <v>134</v>
+      </c>
       <c r="G184" s="10"/>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/EquipmentConfig.xlsx
@@ -37,7 +37,7 @@
     <t>属性数值（参数|百分比%，参数：HP,ATK,ACRJ-生命恢复，Dodge-闪避，CRI-暴击率，ASPD-攻速，Combos-连击，Armor-护甲）</t>
   </si>
   <si>
-    <t>品质(白色-普通-normal；绿色-进阶-advanced；蓝色-稀有-rare；紫色-史诗-epic；红色-传说-legendary；金色-不朽-immortal)</t>
+    <t>品质(白色-普通-Normal；绿色-进阶-Advanced；蓝色-稀有-Rare；紫色-史诗-Epic；红色-传说-Legendary；金色-不朽-Immortal)</t>
   </si>
   <si>
     <t>强化消耗</t>
@@ -118,7 +118,7 @@
     <t>Weapon</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>铁矿</t>
@@ -1185,11 +1185,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1208,6 +1208,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1215,7 +1222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,23 +1242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1266,46 +1265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1328,8 +1289,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,7 +1338,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,7 +1378,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,37 +1516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,61 +1534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,61 +1552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,21 +1603,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1635,27 +1620,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1666,6 +1631,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,16 +1673,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,16 +1702,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1723,112 +1723,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2215,10 +2215,10 @@
   <sheetPr/>
   <dimension ref="A1:V334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:V1"/>
+      <selection pane="bottomLeft" activeCell="G335" sqref="G335:G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2389,7 +2389,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>

--- a/Tables/Sources/gameplay/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/EquipmentConfig.xlsx
@@ -1185,11 +1185,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1208,7 +1208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,14 +1222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,7 +1236,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1265,6 +1273,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1281,14 +1312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1298,15 +1321,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,30 +1338,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1378,7 +1378,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,61 +1522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,67 +1540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,31 +1558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,6 +1602,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1621,15 +1639,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1637,9 +1646,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1673,27 +1684,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,133 +1702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2218,7 +2218,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G335" sqref="G335:G365"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2252,7 +2252,7 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">

--- a/Tables/Sources/gameplay/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5450" uniqueCount="721">
   <si>
     <t>装备ID</t>
   </si>
@@ -2188,10 +2188,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2210,6 +2210,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2217,7 +2224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2225,7 +2232,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2238,8 +2252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2253,40 +2275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2315,6 +2306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2325,7 +2324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2339,8 +2338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2380,7 +2380,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,31 +2476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2428,25 +2488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2458,7 +2512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2470,85 +2542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,6 +2555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,11 +2591,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2648,21 +2661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2680,9 +2678,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2692,10 +2692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2704,31 +2704,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2740,97 +2743,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3220,26 +3220,26 @@
   <sheetPr/>
   <dimension ref="A1:X664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M528" sqref="M528:N529"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="14.5" style="4" customWidth="1"/>
-    <col min="4" max="5" width="17.3796296296296" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.8888888888889" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" style="6" customWidth="1"/>
+    <col min="4" max="5" width="17.3818181818182" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.8909090909091" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.2181818181818" style="6" customWidth="1"/>
     <col min="8" max="8" width="16" style="7" customWidth="1"/>
     <col min="9" max="10" width="23" style="4" customWidth="1"/>
-    <col min="11" max="12" width="26.3333333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.1111111111111" style="4" customWidth="1"/>
+    <col min="11" max="12" width="26.3363636363636" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.1090909090909" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:24">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -24910,7 +24910,7 @@
       </c>
       <c r="I349" s="3" t="str">
         <f>N349&amp;"|"&amp;O349&amp;";"&amp;Q349&amp;"|"&amp;R349</f>
-        <v>|80;101201|6</v>
+        <v>1020|80;101201|6</v>
       </c>
       <c r="J349" s="3">
         <f t="shared" si="115"/>
@@ -24922,6 +24922,12 @@
       <c r="L349" s="3">
         <v>-1</v>
       </c>
+      <c r="M349" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="N349" s="3">
+        <v>1020</v>
+      </c>
       <c r="O349" s="3">
         <f t="shared" si="116"/>
         <v>80</v>
@@ -37660,7 +37666,7 @@
       </c>
       <c r="I529" s="3" t="str">
         <f>N529&amp;"|"&amp;O529&amp;";"&amp;Q529&amp;"|"&amp;R529</f>
-        <v>|80;101801|6</v>
+        <v>1020|80;101801|6</v>
       </c>
       <c r="J529" s="3">
         <f t="shared" si="176"/>
@@ -37671,6 +37677,12 @@
       </c>
       <c r="L529" s="3">
         <v>1006</v>
+      </c>
+      <c r="M529" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="N529" s="3">
+        <v>1020</v>
       </c>
       <c r="O529" s="3">
         <f t="shared" si="177"/>

--- a/Tables/Sources/gameplay/EquipmentConfig.xlsx
+++ b/Tables/Sources/gameplay/EquipmentConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2187,11 +2187,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2210,21 +2210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2239,7 +2225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2252,16 +2245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2275,26 +2268,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2311,6 +2289,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2333,6 +2319,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2380,43 +2380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,7 +2398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,7 +2416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2458,25 +2434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2494,19 +2458,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,7 +2500,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,37 +2548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,15 +2585,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2628,15 +2619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2648,6 +2630,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2678,6 +2669,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2692,10 +2692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2704,133 +2704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3220,26 +3220,26 @@
   <sheetPr/>
   <dimension ref="A1:X664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M528" sqref="M528:N529"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="14.5" style="4" customWidth="1"/>
-    <col min="4" max="5" width="17.3818181818182" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.8909090909091" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.2181818181818" style="6" customWidth="1"/>
+    <col min="4" max="5" width="17.3796296296296" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.8888888888889" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.2222222222222" style="6" customWidth="1"/>
     <col min="8" max="8" width="16" style="7" customWidth="1"/>
     <col min="9" max="10" width="23" style="4" customWidth="1"/>
-    <col min="11" max="12" width="26.3363636363636" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.1090909090909" style="4" customWidth="1"/>
+    <col min="11" max="12" width="26.3333333333333" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.1111111111111" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
@@ -3313,7 +3313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:24">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -3387,7 +3387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3418,14 +3418,14 @@
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
